--- a/files/TextFilter.xlsx
+++ b/files/TextFilter.xlsx
@@ -4,23 +4,26 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" activeTab="1"/>
+    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
     <sheet name="Чек-лист+Дефекты" sheetId="2" r:id="rId2"/>
-    <sheet name="Дефект Клименков" sheetId="4" r:id="rId3"/>
-    <sheet name="Дефект Карпов" sheetId="5" r:id="rId4"/>
-    <sheet name="Дефект Юрова" sheetId="6" r:id="rId5"/>
-    <sheet name="Дефект Тихонова" sheetId="7" r:id="rId6"/>
-    <sheet name="Дефект Ефремов" sheetId="8" r:id="rId7"/>
+    <sheet name="Тест-кейс" sheetId="9" r:id="rId3"/>
+    <sheet name="Тест-кейс (2)" sheetId="10" r:id="rId4"/>
+    <sheet name="Тест-кейс (3)" sheetId="11" r:id="rId5"/>
+    <sheet name="Дефект Клименков" sheetId="4" r:id="rId6"/>
+    <sheet name="Дефект Карпов" sheetId="5" r:id="rId7"/>
+    <sheet name="Дефект Юрова" sheetId="6" r:id="rId8"/>
+    <sheet name="Дефект Тихонова" sheetId="7" r:id="rId9"/>
+    <sheet name="Дефект Ефремов" sheetId="8" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="206">
   <si>
     <t>Тест-план по системному тестированию тренажёра по МЛТА</t>
   </si>
@@ -840,15 +843,198 @@
     <t>S04</t>
   </si>
   <si>
+    <t>Наименование:</t>
+  </si>
+  <si>
+    <t>Предупреждение о незаполненности поля почти</t>
+  </si>
+  <si>
+    <t>Описание:</t>
+  </si>
+  <si>
+    <t>Тест-кейс для проверки возникновения предупреждения 
+о неполных данных в полях регистрации</t>
+  </si>
+  <si>
+    <t>Статус:</t>
+  </si>
+  <si>
+    <t>проведен</t>
+  </si>
+  <si>
+    <t>Дефекты №:</t>
+  </si>
+  <si>
+    <t>Тестировщик:</t>
+  </si>
+  <si>
+    <t>Клименков</t>
+  </si>
+  <si>
+    <t>Дата:</t>
+  </si>
+  <si>
+    <t>Начальные условия:</t>
+  </si>
+  <si>
+    <t>&lt;список параметров&gt;</t>
+  </si>
+  <si>
+    <t>&lt;соответствующие значения&gt;</t>
+  </si>
+  <si>
+    <t>&lt;отметка о проверке при выполнении кейса&gt;</t>
+  </si>
+  <si>
+    <t>шагов 4</t>
+  </si>
+  <si>
+    <t>Число шагов по статусам:</t>
+  </si>
+  <si>
+    <t>% Complete:</t>
+  </si>
+  <si>
+    <t>Шаг</t>
+  </si>
+  <si>
+    <t>Действие</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t>№ дефекта</t>
+  </si>
+  <si>
+    <t>Запустить приложение 5th</t>
+  </si>
+  <si>
+    <t>Открылось окно 5th</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Регистрация</t>
+  </si>
+  <si>
+    <t>Открылось окно Регистрации.</t>
+  </si>
+  <si>
+    <t>Открылось окно авторизации.</t>
+  </si>
+  <si>
+    <t>Ввести во все поля кроме почта значения</t>
+  </si>
+  <si>
+    <t>Поля кроме поля почта заполненны</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Вход</t>
+  </si>
+  <si>
+    <t>Появляется предупреждение о нехваткке данных</t>
+  </si>
+  <si>
+    <t>х</t>
+  </si>
+  <si>
+    <t>сервер перестал работать</t>
+  </si>
+  <si>
+    <t>Предупреждение о незаполненности поля при авторизации</t>
+  </si>
+  <si>
+    <t>Тест-кейс для проверки возникновения предупреждения 
+о неполных данных в полях автори зации</t>
+  </si>
+  <si>
+    <t>Карпов</t>
+  </si>
+  <si>
+    <t>шагов 3</t>
+  </si>
+  <si>
+    <t>Ввести данные для входа только в поле логин</t>
+  </si>
+  <si>
+    <t>Поле логин заполнено</t>
+  </si>
+  <si>
+    <t>поле логин заполнено</t>
+  </si>
+  <si>
+    <t>Появится предупреждение о незаполненности поля пароль</t>
+  </si>
+  <si>
+    <t>Появилось уведомление об ошибке авторизации</t>
+  </si>
+  <si>
+    <t>Предупреждение о незаполненности поля ответ</t>
+  </si>
+  <si>
+    <t>Тест-кейс для проверки возникновения предупреждения 
+о неполных данных в полях отве</t>
+  </si>
+  <si>
+    <t>Тихонова</t>
+  </si>
+  <si>
+    <t>шагов 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести данные для входа </t>
+  </si>
+  <si>
+    <t>Поля авторизации заполнены</t>
+  </si>
+  <si>
+    <t>поля авторизации заполнено</t>
+  </si>
+  <si>
+    <t>Вход в приложении</t>
+  </si>
+  <si>
+    <t>Мы зашли в приложение</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Task</t>
+  </si>
+  <si>
+    <t>Появится задание и поле ответ</t>
+  </si>
+  <si>
+    <t>Появилось задание и поле ответ</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку ответить</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Появится уведомление о аустом занечении поля ответ </t>
+  </si>
+  <si>
+    <t>Сервер прекратил свою работу</t>
+  </si>
+  <si>
     <t>Название</t>
   </si>
   <si>
     <t>Предупреждение об отсутсвии данных в полях в окне регистрации</t>
   </si>
   <si>
-    <t>№ дефекта</t>
-  </si>
-  <si>
     <t>№ Тест-кейсаа</t>
   </si>
   <si>
@@ -882,9 +1068,6 @@
     <t>Автор</t>
   </si>
   <si>
-    <t>Клименков</t>
-  </si>
-  <si>
     <t>Описание</t>
   </si>
   <si>
@@ -903,9 +1086,6 @@
     <t>low</t>
   </si>
   <si>
-    <t>Карпов</t>
-  </si>
-  <si>
     <t>Шаги воспроизведения деффекта                    1Запустить приложение   2Ввести значения во все поля кроме одного                 3Нажать на кнопку вход                           .Ожидаемый результат:      Появление предупреждения о незаполненном поле        .Наблюдаемый результат: Появление   сообщения о ошибке авторизации</t>
   </si>
   <si>
@@ -925,9 +1105,6 @@
   </si>
   <si>
     <t>hight</t>
-  </si>
-  <si>
-    <t>Тихонова</t>
   </si>
   <si>
     <t xml:space="preserve">Шаги воспроизведения деффекта                    1Запустить приложение   2Ввести значения во все поля кроме одного                 3Нажать на кнопку вход 4Открыть Task                5Отправить пустое поле с ответом                          .Ожидаемый результат:      Появление предупреждения о незаполненном поле        .Наблюдаемый результат:      Сервер прекратил свою работу   </t>
@@ -950,11 +1127,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
     <numFmt numFmtId="181" formatCode="\2\.\5"/>
   </numFmts>
   <fonts count="27">
@@ -1012,6 +1189,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1020,44 +1204,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,8 +1236,44 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,9 +1287,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1103,25 +1303,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1136,27 +1319,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1177,13 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.25"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FFFBE4D5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1219,19 +1390,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,7 +1438,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,73 +1450,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1339,7 +1474,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1351,13 +1504,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,13 +1540,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,14 +1562,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="52">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1585,6 +1756,189 @@
       <top/>
       <bottom style="medium">
         <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1662,62 +2016,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -1734,51 +2032,6 @@
       </left>
       <right style="medium">
         <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
       </right>
       <top style="medium">
         <color rgb="FFCCCCCC"/>
@@ -1827,19 +2080,6 @@
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color auto="1"/>
       </left>
       <right/>
@@ -1855,21 +2095,6 @@
       <left style="medium">
         <color auto="1"/>
       </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -1893,19 +2118,6 @@
       </top>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1979,6 +2191,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2008,41 +2259,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2070,166 +2291,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="46" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="47" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="124">
+  <cellXfs count="145">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2263,16 +2475,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
@@ -2281,7 +2490,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2293,13 +2502,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2320,16 +2529,13 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2356,16 +2562,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2398,157 +2601,228 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="5" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2575,10 +2849,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2590,13 +2864,10 @@
     <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2740,7 +3011,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="8212455"/>
+          <a:off x="0" y="3850005"/>
           <a:ext cx="9753600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2787,7 +3058,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="7507605"/>
+          <a:off x="0" y="3987165"/>
           <a:ext cx="9753600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2829,7 +3100,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10090785" y="7507605"/>
+          <a:off x="10090785" y="3987165"/>
           <a:ext cx="9753600" cy="5486400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3112,324 +3383,441 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" style="56"/>
-    <col min="2" max="2" width="21.287037037037" style="56" customWidth="1"/>
-    <col min="3" max="3" width="11.1388888888889" style="56" customWidth="1"/>
-    <col min="4" max="4" width="53.1018518518519" style="56" customWidth="1"/>
-    <col min="5" max="6" width="9.13888888888889" style="56"/>
-    <col min="7" max="7" width="20.1018518518519" style="56" customWidth="1"/>
-    <col min="8" max="8" width="27.4259259259259" style="56" customWidth="1"/>
-    <col min="9" max="9" width="27.5740740740741" style="56" customWidth="1"/>
-    <col min="10" max="10" width="25.1111111111111" style="56" customWidth="1"/>
-    <col min="11" max="11" width="9.13888888888889" style="56"/>
+    <col min="1" max="1" width="9.13888888888889" style="78"/>
+    <col min="2" max="2" width="21.287037037037" style="78" customWidth="1"/>
+    <col min="3" max="3" width="11.1388888888889" style="78" customWidth="1"/>
+    <col min="4" max="4" width="53.1018518518519" style="78" customWidth="1"/>
+    <col min="5" max="6" width="9.13888888888889" style="78"/>
+    <col min="7" max="7" width="20.1018518518519" style="78" customWidth="1"/>
+    <col min="8" max="8" width="27.4259259259259" style="78" customWidth="1"/>
+    <col min="9" max="9" width="27.5740740740741" style="78" customWidth="1"/>
+    <col min="10" max="10" width="25.1111111111111" style="78" customWidth="1"/>
+    <col min="11" max="11" width="9.13888888888889" style="78"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="108"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="130"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="109" t="s">
+      <c r="A2" s="131" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="107"/>
-      <c r="F2" s="108"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="129"/>
+      <c r="E2" s="129"/>
+      <c r="F2" s="130"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="110" t="s">
+      <c r="A3" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="108"/>
+      <c r="B3" s="133"/>
+      <c r="C3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="129"/>
+      <c r="F3" s="130"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="107"/>
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="107"/>
-      <c r="E4" s="107"/>
-      <c r="F4" s="108"/>
+      <c r="A4" s="129"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="129"/>
+      <c r="F4" s="130"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="111" t="s">
+      <c r="A5" s="133" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="108"/>
+      <c r="B5" s="133"/>
+      <c r="C5" s="133"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="130"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="107"/>
-      <c r="B6" s="107"/>
-      <c r="C6" s="107"/>
-      <c r="D6" s="107"/>
-      <c r="E6" s="107"/>
-      <c r="F6" s="108"/>
+      <c r="A6" s="129"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="130"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="107"/>
-      <c r="B7" s="107"/>
-      <c r="C7" s="107"/>
-      <c r="D7" s="107"/>
-      <c r="E7" s="107"/>
-      <c r="F7" s="108"/>
+      <c r="A7" s="129"/>
+      <c r="B7" s="129"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="113" t="s">
+      <c r="A8" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="113"/>
-      <c r="C8" s="114"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="108"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="136"/>
+      <c r="D8" s="136"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="130"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="114"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
+      <c r="A9" s="136"/>
+      <c r="B9" s="136"/>
+      <c r="C9" s="136"/>
+      <c r="D9" s="136"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="107"/>
-      <c r="B10" s="107"/>
-      <c r="C10" s="107"/>
-      <c r="D10" s="107"/>
-      <c r="E10" s="107"/>
-      <c r="F10" s="108"/>
+      <c r="A10" s="129"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="115" t="s">
+      <c r="A11" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="115" t="s">
+      <c r="B11" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="115" t="s">
+      <c r="C11" s="137" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="115" t="s">
+      <c r="D11" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="115" t="s">
+      <c r="E11" s="137" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="116" t="s">
+      <c r="F11" s="138" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="115" t="s">
+      <c r="G11" s="137" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="115" t="s">
+      <c r="H11" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="137" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="115" t="s">
+      <c r="J11" s="137" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="120" t="s">
+      <c r="K11" s="142" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="121"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
-      <c r="O11" s="122"/>
-      <c r="P11" s="122"/>
+      <c r="L11" s="143"/>
+      <c r="M11" s="47"/>
+      <c r="N11" s="47"/>
+      <c r="O11" s="47"/>
+      <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117" t="s">
+      <c r="A12" s="139"/>
+      <c r="B12" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="117">
+      <c r="C12" s="139">
         <v>1</v>
       </c>
-      <c r="D12" s="117" t="s">
+      <c r="D12" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="117">
+      <c r="E12" s="139">
         <v>0.5</v>
       </c>
-      <c r="F12" s="117"/>
-      <c r="G12" s="117" t="s">
+      <c r="F12" s="139"/>
+      <c r="G12" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="117"/>
-      <c r="I12" s="117"/>
-      <c r="J12" s="117" t="s">
+      <c r="H12" s="139"/>
+      <c r="I12" s="139"/>
+      <c r="J12" s="139" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="123"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
-      <c r="O12" s="122"/>
-      <c r="P12" s="122"/>
+      <c r="K12" s="144"/>
+      <c r="L12" s="143"/>
+      <c r="M12" s="47"/>
+      <c r="N12" s="47"/>
+      <c r="O12" s="47"/>
+      <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117" t="s">
+      <c r="A13" s="139"/>
+      <c r="B13" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="117">
+      <c r="C13" s="139">
         <v>1</v>
       </c>
-      <c r="D13" s="117" t="s">
+      <c r="D13" s="139" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="117">
+      <c r="E13" s="139">
         <v>0.5</v>
       </c>
-      <c r="F13" s="117"/>
-      <c r="G13" s="117" t="s">
+      <c r="F13" s="139"/>
+      <c r="G13" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="117"/>
-      <c r="I13" s="117"/>
-      <c r="J13" s="117" t="s">
+      <c r="H13" s="139"/>
+      <c r="I13" s="139"/>
+      <c r="J13" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="123"/>
-      <c r="L13" s="121"/>
-      <c r="M13" s="122"/>
-      <c r="N13" s="122"/>
-      <c r="O13" s="122"/>
-      <c r="P13" s="122"/>
+      <c r="K13" s="144"/>
+      <c r="L13" s="143"/>
+      <c r="M13" s="47"/>
+      <c r="N13" s="47"/>
+      <c r="O13" s="47"/>
+      <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="117"/>
-      <c r="B14" s="117" t="s">
+      <c r="A14" s="139"/>
+      <c r="B14" s="139" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="117">
+      <c r="C14" s="139">
         <v>2</v>
       </c>
-      <c r="D14" s="117" t="s">
+      <c r="D14" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="117">
+      <c r="E14" s="139">
         <v>0.5</v>
       </c>
-      <c r="F14" s="117"/>
-      <c r="G14" s="117" t="s">
+      <c r="F14" s="139"/>
+      <c r="G14" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="117"/>
-      <c r="I14" s="117"/>
-      <c r="J14" s="117" t="s">
+      <c r="H14" s="139"/>
+      <c r="I14" s="139"/>
+      <c r="J14" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="123"/>
-      <c r="L14" s="121"/>
-      <c r="M14" s="122"/>
-      <c r="N14" s="122"/>
-      <c r="O14" s="122"/>
-      <c r="P14" s="122"/>
+      <c r="K14" s="144"/>
+      <c r="L14" s="143"/>
+      <c r="M14" s="47"/>
+      <c r="N14" s="47"/>
+      <c r="O14" s="47"/>
+      <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117" t="s">
+      <c r="A15" s="139"/>
+      <c r="B15" s="139" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="117">
+      <c r="C15" s="139">
         <v>2</v>
       </c>
-      <c r="D15" s="117" t="s">
+      <c r="D15" s="139" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="117">
+      <c r="E15" s="139">
         <v>0.5</v>
       </c>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117" t="s">
+      <c r="F15" s="139"/>
+      <c r="G15" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="117"/>
-      <c r="I15" s="117"/>
-      <c r="J15" s="117" t="s">
+      <c r="H15" s="139"/>
+      <c r="I15" s="139"/>
+      <c r="J15" s="139" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="123"/>
-      <c r="L15" s="121"/>
-      <c r="M15" s="122"/>
-      <c r="N15" s="122"/>
-      <c r="O15" s="122"/>
-      <c r="P15" s="122"/>
+      <c r="K15" s="144"/>
+      <c r="L15" s="143"/>
+      <c r="M15" s="47"/>
+      <c r="N15" s="47"/>
+      <c r="O15" s="47"/>
+      <c r="P15" s="47"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117" t="s">
+      <c r="A16" s="139"/>
+      <c r="B16" s="139" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="117">
+      <c r="C16" s="139">
         <v>2</v>
       </c>
-      <c r="D16" s="117" t="s">
+      <c r="D16" s="139" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="117" t="s">
+      <c r="E16" s="139" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117" t="s">
+      <c r="F16" s="139"/>
+      <c r="G16" s="139" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="117" t="s">
+      <c r="H16" s="139"/>
+      <c r="I16" s="139"/>
+      <c r="J16" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="123"/>
-      <c r="L16" s="121"/>
-      <c r="M16" s="122"/>
-      <c r="N16" s="122"/>
-      <c r="O16" s="122"/>
-      <c r="P16" s="122"/>
+      <c r="K16" s="144"/>
+      <c r="L16" s="143"/>
+      <c r="M16" s="47"/>
+      <c r="N16" s="47"/>
+      <c r="O16" s="47"/>
+      <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="118" t="s">
+      <c r="A17" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="119">
+      <c r="B17" s="139"/>
+      <c r="C17" s="139"/>
+      <c r="D17" s="139"/>
+      <c r="E17" s="141">
         <v>45048</v>
       </c>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="117"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="121"/>
-      <c r="M17" s="122"/>
-      <c r="N17" s="122"/>
-      <c r="O17" s="122"/>
-      <c r="P17" s="122"/>
+      <c r="F17" s="139"/>
+      <c r="G17" s="139"/>
+      <c r="H17" s="139"/>
+      <c r="I17" s="139"/>
+      <c r="J17" s="139"/>
+      <c r="K17" s="144"/>
+      <c r="L17" s="143"/>
+      <c r="M17" s="47"/>
+      <c r="N17" s="47"/>
+      <c r="O17" s="47"/>
+      <c r="P17" s="47"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="22.8888888888889" customWidth="1"/>
+    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="26.4" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>177</v>
+      </c>
+      <c r="D2" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="4" ht="39.6" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="7" ht="145.2" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3441,1099 +3829,1099 @@
   <sheetPr/>
   <dimension ref="A1:I83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A35" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" style="56"/>
-    <col min="2" max="2" width="21.4259259259259" style="56" customWidth="1"/>
-    <col min="3" max="3" width="17.4259259259259" style="56" customWidth="1"/>
-    <col min="4" max="4" width="31" style="56" customWidth="1"/>
-    <col min="5" max="5" width="33.287037037037" style="56" customWidth="1"/>
-    <col min="6" max="6" width="9.13888888888889" style="56"/>
-    <col min="7" max="7" width="42.712962962963" style="56" customWidth="1"/>
-    <col min="8" max="8" width="56.712962962963" style="56" customWidth="1"/>
-    <col min="9" max="9" width="13.1388888888889" style="56" customWidth="1"/>
+    <col min="1" max="1" width="9.13888888888889" style="78"/>
+    <col min="2" max="2" width="21.4259259259259" style="78" customWidth="1"/>
+    <col min="3" max="3" width="17.4259259259259" style="78" customWidth="1"/>
+    <col min="4" max="4" width="31" style="78" customWidth="1"/>
+    <col min="5" max="5" width="33.287037037037" style="78" customWidth="1"/>
+    <col min="6" max="6" width="9.13888888888889" style="78"/>
+    <col min="7" max="7" width="42.712962962963" style="78" customWidth="1"/>
+    <col min="8" max="8" width="56.712962962963" style="78" customWidth="1"/>
+    <col min="9" max="9" width="13.1388888888889" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:9">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="80" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="60" t="s">
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="82" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="61"/>
-      <c r="G1" s="58" t="s">
+      <c r="F1" s="83"/>
+      <c r="G1" s="80" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" ht="15.15" spans="1:9">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86">
         <v>45076</v>
       </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="66" t="s">
+      <c r="F2" s="87"/>
+      <c r="G2" s="88" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="66" t="s">
+      <c r="H2" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="88" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:9">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="70" t="s">
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="91"/>
+      <c r="G3" s="92" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="70" t="s">
+      <c r="H3" s="92" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="70"/>
+      <c r="I3" s="92"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:9">
-      <c r="A4" s="71"/>
-      <c r="B4" s="72" t="s">
+      <c r="A4" s="93"/>
+      <c r="B4" s="94" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="69"/>
-      <c r="G4" s="70" t="s">
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="70" t="s">
+      <c r="H4" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="70"/>
+      <c r="I4" s="92"/>
     </row>
     <row r="5" ht="15.15" spans="1:9">
-      <c r="A5" s="75"/>
-      <c r="B5" s="67" t="s">
+      <c r="A5" s="97"/>
+      <c r="B5" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="68"/>
-      <c r="D5" s="68"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="69"/>
-      <c r="G5" s="76" t="s">
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="92" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="70"/>
+      <c r="I5" s="92"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:9">
-      <c r="A6" s="77" t="s">
+      <c r="A6" s="99" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="78"/>
-      <c r="C6" s="78"/>
-      <c r="D6" s="79" t="s">
+      <c r="B6" s="100"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="80">
+      <c r="E6" s="102">
         <v>1</v>
       </c>
-      <c r="F6" s="69"/>
-      <c r="G6" s="76" t="s">
+      <c r="F6" s="91"/>
+      <c r="G6" s="98" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="70" t="s">
+      <c r="H6" s="92" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="70"/>
+      <c r="I6" s="92"/>
     </row>
     <row r="7" ht="29.55" spans="1:9">
-      <c r="A7" s="77" t="s">
+      <c r="A7" s="99" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="79" t="s">
+      <c r="B7" s="100"/>
+      <c r="C7" s="100"/>
+      <c r="D7" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="80">
+      <c r="E7" s="102">
         <v>1</v>
       </c>
-      <c r="F7" s="65"/>
-      <c r="G7" s="76" t="s">
+      <c r="F7" s="87"/>
+      <c r="G7" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="70" t="s">
+      <c r="H7" s="92" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="84"/>
+      <c r="I7" s="106"/>
     </row>
     <row r="8" ht="15.15" spans="1:9">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="81" t="s">
+      <c r="A8" s="97"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="65"/>
-      <c r="G8" s="83"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="84"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="104"/>
+      <c r="F8" s="87"/>
+      <c r="G8" s="105"/>
+      <c r="H8" s="106"/>
+      <c r="I8" s="106"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:9">
-      <c r="A9" s="77" t="s">
+      <c r="A9" s="99" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="78"/>
-      <c r="C9" s="78"/>
-      <c r="D9" s="79" t="s">
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="80">
+      <c r="E9" s="102">
         <v>2</v>
       </c>
-      <c r="F9" s="65"/>
-      <c r="G9" s="84"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="84"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="106"/>
+      <c r="H9" s="106"/>
+      <c r="I9" s="106"/>
     </row>
     <row r="10" ht="29.55" spans="1:9">
-      <c r="A10" s="77" t="s">
+      <c r="A10" s="99" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="78"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="80">
+      <c r="E10" s="102">
         <v>2</v>
       </c>
-      <c r="F10" s="65"/>
-      <c r="G10" s="84"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="84"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="106"/>
+      <c r="H10" s="106"/>
+      <c r="I10" s="106"/>
     </row>
     <row r="11" ht="15.15" spans="6:9">
-      <c r="F11" s="65"/>
-      <c r="G11" s="84"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="84"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="106"/>
+      <c r="H11" s="106"/>
+      <c r="I11" s="106"/>
     </row>
     <row r="12" ht="15.15" spans="6:9">
-      <c r="F12" s="65"/>
-      <c r="G12" s="84"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="84"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="106"/>
+      <c r="H12" s="106"/>
+      <c r="I12" s="106"/>
     </row>
     <row r="13" ht="15.15" spans="1:9">
-      <c r="A13" s="85" t="s">
+      <c r="A13" s="107" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="84"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="84"/>
+      <c r="B13" s="108"/>
+      <c r="C13" s="108"/>
+      <c r="D13" s="108"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="106"/>
+      <c r="H13" s="106"/>
+      <c r="I13" s="106"/>
     </row>
     <row r="14" ht="15.15" spans="1:9">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="94" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="73"/>
-      <c r="C14" s="73"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
+      <c r="B14" s="95"/>
+      <c r="C14" s="95"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" ht="15.15" spans="1:9">
-      <c r="A15" s="77" t="s">
+      <c r="A15" s="99" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="78"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="70" t="s">
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="92" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="87"/>
-      <c r="F15" s="65"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="106"/>
+      <c r="H15" s="106"/>
+      <c r="I15" s="106"/>
     </row>
     <row r="16" ht="15.15" spans="1:9">
-      <c r="A16" s="88" t="s">
+      <c r="A16" s="110" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="68"/>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="106"/>
+      <c r="H16" s="106"/>
+      <c r="I16" s="106"/>
     </row>
     <row r="17" ht="58.35" spans="1:9">
-      <c r="A17" s="77" t="s">
+      <c r="A17" s="99" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="79" t="s">
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="80" t="s">
+      <c r="E17" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="65"/>
-      <c r="G17" s="84"/>
-      <c r="H17" s="84"/>
-      <c r="I17" s="84"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="106"/>
+      <c r="H17" s="106"/>
+      <c r="I17" s="106"/>
     </row>
     <row r="18" ht="43.95" spans="1:9">
-      <c r="A18" s="77" t="s">
+      <c r="A18" s="99" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="78"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="79" t="s">
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="80" t="s">
+      <c r="E18" s="102" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="65"/>
-      <c r="G18" s="84"/>
-      <c r="H18" s="84"/>
-      <c r="I18" s="84"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
     </row>
     <row r="19" ht="15.15" spans="1:9">
-      <c r="A19" s="75"/>
-      <c r="B19" s="75"/>
-      <c r="C19" s="81" t="s">
+      <c r="A19" s="97"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="103" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="75"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="65"/>
-      <c r="G19" s="84"/>
-      <c r="H19" s="84"/>
-      <c r="I19" s="84"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="106"/>
+      <c r="H19" s="106"/>
+      <c r="I19" s="106"/>
     </row>
     <row r="20" ht="43.95" spans="1:9">
-      <c r="A20" s="77" t="s">
+      <c r="A20" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="78"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="79" t="s">
+      <c r="B20" s="100"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="80">
+      <c r="E20" s="102">
         <v>2</v>
       </c>
-      <c r="F20" s="65"/>
-      <c r="G20" s="84"/>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="106"/>
+      <c r="H20" s="106"/>
+      <c r="I20" s="106"/>
     </row>
     <row r="21" ht="43.95" spans="1:9">
-      <c r="A21" s="77" t="s">
+      <c r="A21" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="79" t="s">
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="80">
+      <c r="E21" s="102">
         <v>2</v>
       </c>
-      <c r="F21" s="65"/>
-      <c r="G21" s="84"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="106"/>
+      <c r="H21" s="106"/>
+      <c r="I21" s="106"/>
     </row>
     <row r="22" ht="43.95" spans="1:9">
-      <c r="A22" s="78" t="s">
+      <c r="A22" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="79" t="s">
+      <c r="B22" s="100"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="80">
+      <c r="E22" s="102">
         <v>2</v>
       </c>
-      <c r="F22" s="65"/>
-      <c r="G22" s="84"/>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
     </row>
     <row r="23" ht="15.15" spans="1:9">
-      <c r="A23" s="71"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="81" t="s">
+      <c r="A23" s="93"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="103" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="75"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="65"/>
-      <c r="G23" s="84"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="106"/>
+      <c r="H23" s="106"/>
+      <c r="I23" s="106"/>
     </row>
     <row r="24" ht="43.95" spans="1:9">
-      <c r="A24" s="77" t="s">
+      <c r="A24" s="99" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79" t="s">
+      <c r="B24" s="100"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="80" t="s">
+      <c r="E24" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="65"/>
-      <c r="G24" s="84"/>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="106"/>
+      <c r="H24" s="106"/>
+      <c r="I24" s="106"/>
     </row>
     <row r="25" ht="43.95" spans="1:9">
-      <c r="A25" s="77" t="s">
+      <c r="A25" s="99" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79" t="s">
+      <c r="B25" s="100"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="80" t="s">
+      <c r="E25" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="84"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="106"/>
+      <c r="H25" s="106"/>
+      <c r="I25" s="106"/>
     </row>
     <row r="26" ht="43.95" spans="1:9">
-      <c r="A26" s="63" t="s">
+      <c r="A26" s="85" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="78"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79" t="s">
+      <c r="B26" s="100"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="80" t="s">
+      <c r="E26" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="65"/>
-      <c r="G26" s="84"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
+      <c r="F26" s="87"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
     </row>
     <row r="27" ht="15.15" spans="6:9">
-      <c r="F27" s="65"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
+      <c r="F27" s="87"/>
+      <c r="G27" s="106"/>
+      <c r="H27" s="106"/>
+      <c r="I27" s="106"/>
     </row>
     <row r="28" ht="15.15" spans="6:9">
-      <c r="F28" s="65"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
+      <c r="F28" s="87"/>
+      <c r="G28" s="106"/>
+      <c r="H28" s="106"/>
+      <c r="I28" s="106"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A29" s="84"/>
-      <c r="B29" s="89" t="s">
+      <c r="A29" s="106"/>
+      <c r="B29" s="111" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="90"/>
-      <c r="D29" s="90"/>
-      <c r="E29" s="90"/>
-      <c r="F29" s="65"/>
-      <c r="G29" s="84"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="87"/>
+      <c r="G29" s="106"/>
+      <c r="H29" s="106"/>
+      <c r="I29" s="106"/>
     </row>
     <row r="30" ht="15.15" spans="1:9">
-      <c r="A30" s="84"/>
-      <c r="B30" s="91" t="s">
+      <c r="A30" s="106"/>
+      <c r="B30" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="84"/>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="87"/>
+      <c r="G30" s="106"/>
+      <c r="H30" s="106"/>
+      <c r="I30" s="106"/>
     </row>
     <row r="31" ht="27.15" spans="1:9">
-      <c r="A31" s="75"/>
-      <c r="B31" s="75"/>
-      <c r="C31" s="75" t="s">
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="75"/>
-      <c r="E31" s="93"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="84"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="115"/>
+      <c r="F31" s="87"/>
+      <c r="G31" s="106"/>
+      <c r="H31" s="106"/>
+      <c r="I31" s="106"/>
     </row>
     <row r="32" ht="29.55" spans="1:9">
-      <c r="A32" s="71" t="s">
+      <c r="A32" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78" t="s">
+      <c r="B32" s="100"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="80" t="s">
+      <c r="E32" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="65"/>
-      <c r="G32" s="84"/>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="106"/>
+      <c r="H32" s="106"/>
+      <c r="I32" s="106"/>
     </row>
     <row r="33" ht="15.15" spans="1:9">
-      <c r="A33" s="75"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="75"/>
-      <c r="E33" s="94"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="84"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="116"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="106"/>
+      <c r="H33" s="106"/>
+      <c r="I33" s="106"/>
     </row>
     <row r="34" ht="29.55" spans="1:9">
-      <c r="A34" s="71" t="s">
+      <c r="A34" s="93" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78" t="s">
+      <c r="B34" s="100"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E34" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="84"/>
-      <c r="G34" s="84"/>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="106"/>
+      <c r="H34" s="106"/>
+      <c r="I34" s="106"/>
     </row>
     <row r="35" ht="29.55" spans="1:9">
-      <c r="A35" s="71" t="s">
+      <c r="A35" s="93" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78" t="s">
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="80" t="s">
+      <c r="E35" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="84"/>
-      <c r="G35" s="84"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
+      <c r="F35" s="106"/>
+      <c r="G35" s="106"/>
+      <c r="H35" s="106"/>
+      <c r="I35" s="106"/>
     </row>
     <row r="36" ht="29.55" spans="1:9">
-      <c r="A36" s="95" t="s">
+      <c r="A36" s="117" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="96"/>
-      <c r="C36" s="96"/>
-      <c r="D36" s="96" t="s">
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="118" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="80" t="s">
+      <c r="E36" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="84"/>
-      <c r="G36" s="84"/>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="106"/>
+      <c r="H36" s="106"/>
+      <c r="I36" s="106"/>
     </row>
     <row r="37" ht="29.55" spans="1:7">
-      <c r="A37" s="97" t="s">
+      <c r="A37" s="119" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="98"/>
-      <c r="C37" s="99"/>
-      <c r="D37" s="100" t="s">
+      <c r="B37" s="120"/>
+      <c r="C37" s="121"/>
+      <c r="D37" s="122" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="80" t="s">
+      <c r="E37" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="101"/>
-      <c r="G37" s="84"/>
+      <c r="F37" s="123"/>
+      <c r="G37" s="106"/>
     </row>
     <row r="38" ht="29.55" spans="1:7">
-      <c r="A38" s="102" t="s">
+      <c r="A38" s="124" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="103"/>
-      <c r="C38" s="104"/>
-      <c r="D38" s="105" t="s">
+      <c r="B38" s="125"/>
+      <c r="C38" s="126"/>
+      <c r="D38" s="127" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="80" t="s">
+      <c r="E38" s="102" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="101"/>
-      <c r="G38" s="84"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="106"/>
     </row>
     <row r="39" ht="15.15" spans="6:7">
-      <c r="F39" s="84"/>
-      <c r="G39" s="84"/>
+      <c r="F39" s="106"/>
+      <c r="G39" s="106"/>
     </row>
     <row r="40" ht="15.15" spans="6:7">
-      <c r="F40" s="84"/>
-      <c r="G40" s="84"/>
+      <c r="F40" s="106"/>
+      <c r="G40" s="106"/>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:7">
-      <c r="A41" s="84"/>
-      <c r="B41" s="89" t="s">
+      <c r="A41" s="106"/>
+      <c r="B41" s="111" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="84"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="106"/>
+      <c r="G41" s="106"/>
     </row>
     <row r="42" ht="15.15" spans="1:7">
-      <c r="A42" s="84"/>
-      <c r="B42" s="91" t="s">
+      <c r="A42" s="106"/>
+      <c r="B42" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="84"/>
-      <c r="G42" s="84"/>
+      <c r="C42" s="114"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="106"/>
+      <c r="G42" s="106"/>
     </row>
     <row r="43" ht="15.15" spans="1:7">
-      <c r="A43" s="75"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="93" t="s">
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="115" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="106"/>
-      <c r="E43" s="93"/>
-      <c r="F43" s="84"/>
-      <c r="G43" s="84"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="115"/>
+      <c r="F43" s="106"/>
+      <c r="G43" s="106"/>
     </row>
     <row r="44" ht="29.55" spans="1:7">
-      <c r="A44" s="71" t="s">
+      <c r="A44" s="93" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="78"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78" t="s">
+      <c r="B44" s="100"/>
+      <c r="C44" s="100"/>
+      <c r="D44" s="100" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="80" t="s">
+      <c r="E44" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="84"/>
-      <c r="G44" s="84"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
     </row>
     <row r="45" ht="15.15" spans="1:9">
-      <c r="A45" s="75"/>
-      <c r="B45" s="75"/>
-      <c r="C45" s="75" t="s">
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="75"/>
-      <c r="E45" s="94"/>
-      <c r="F45" s="84"/>
-      <c r="G45" s="84"/>
-      <c r="H45" s="84"/>
-      <c r="I45" s="84"/>
+      <c r="D45" s="97"/>
+      <c r="E45" s="116"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
     </row>
     <row r="46" ht="29.55" spans="1:9">
-      <c r="A46" s="71" t="s">
+      <c r="A46" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="78"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78" t="s">
+      <c r="B46" s="100"/>
+      <c r="C46" s="100"/>
+      <c r="D46" s="100" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="80" t="s">
+      <c r="E46" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="84"/>
-      <c r="G46" s="84"/>
-      <c r="H46" s="84"/>
-      <c r="I46" s="84"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
     </row>
     <row r="47" ht="29.55" spans="1:9">
-      <c r="A47" s="71" t="s">
+      <c r="A47" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="78"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78" t="s">
+      <c r="B47" s="100"/>
+      <c r="C47" s="100"/>
+      <c r="D47" s="100" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="80" t="s">
+      <c r="E47" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="84"/>
-      <c r="G47" s="84"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
     </row>
     <row r="48" ht="29.55" spans="1:9">
-      <c r="A48" s="77" t="s">
+      <c r="A48" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="78"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78" t="s">
+      <c r="B48" s="100"/>
+      <c r="C48" s="100"/>
+      <c r="D48" s="100" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="80" t="s">
+      <c r="E48" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="84"/>
-      <c r="G48" s="84"/>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
     </row>
     <row r="49" ht="15.15" spans="6:9">
-      <c r="F49" s="84"/>
-      <c r="G49" s="84"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
+      <c r="F49" s="106"/>
+      <c r="G49" s="106"/>
+      <c r="H49" s="106"/>
+      <c r="I49" s="106"/>
     </row>
     <row r="50" ht="15.15" spans="6:9">
-      <c r="F50" s="84"/>
-      <c r="G50" s="84"/>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
     </row>
     <row r="51" ht="15.15" spans="1:9">
-      <c r="A51" s="84"/>
-      <c r="B51" s="89" t="s">
+      <c r="A51" s="106"/>
+      <c r="B51" s="111" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="84"/>
-      <c r="G51" s="84"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
+      <c r="C51" s="112"/>
+      <c r="D51" s="112"/>
+      <c r="E51" s="112"/>
+      <c r="F51" s="106"/>
+      <c r="G51" s="106"/>
+      <c r="H51" s="106"/>
+      <c r="I51" s="106"/>
     </row>
     <row r="52" ht="15.15" spans="1:9">
-      <c r="A52" s="84"/>
-      <c r="B52" s="91" t="s">
+      <c r="A52" s="106"/>
+      <c r="B52" s="113" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="92"/>
-      <c r="F52" s="84"/>
-      <c r="G52" s="84"/>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
+      <c r="C52" s="114"/>
+      <c r="D52" s="114"/>
+      <c r="E52" s="114"/>
+      <c r="F52" s="106"/>
+      <c r="G52" s="106"/>
+      <c r="H52" s="106"/>
+      <c r="I52" s="106"/>
     </row>
     <row r="53" ht="15.15" spans="1:9">
-      <c r="A53" s="75"/>
-      <c r="B53" s="75"/>
-      <c r="C53" s="75"/>
-      <c r="D53" s="75"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="84"/>
-      <c r="G53" s="84"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="97"/>
+      <c r="D53" s="97"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="106"/>
+      <c r="G53" s="106"/>
+      <c r="H53" s="106"/>
+      <c r="I53" s="106"/>
     </row>
     <row r="54" ht="29.55" spans="1:9">
-      <c r="A54" s="71" t="s">
+      <c r="A54" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="78"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78" t="s">
+      <c r="B54" s="100"/>
+      <c r="C54" s="100"/>
+      <c r="D54" s="100" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="80" t="s">
+      <c r="E54" s="102" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="84"/>
-      <c r="G54" s="84"/>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
+      <c r="F54" s="106"/>
+      <c r="G54" s="106"/>
+      <c r="H54" s="106"/>
+      <c r="I54" s="106"/>
     </row>
     <row r="55" ht="15.15" spans="1:9">
-      <c r="A55" s="75"/>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="94"/>
-      <c r="F55" s="84"/>
-      <c r="G55" s="84"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
+      <c r="A55" s="97"/>
+      <c r="B55" s="97"/>
+      <c r="C55" s="97"/>
+      <c r="D55" s="97"/>
+      <c r="E55" s="116"/>
+      <c r="F55" s="106"/>
+      <c r="G55" s="106"/>
+      <c r="H55" s="106"/>
+      <c r="I55" s="106"/>
     </row>
     <row r="56" ht="15.15" spans="1:9">
-      <c r="A56" s="71" t="s">
+      <c r="A56" s="93" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="78"/>
-      <c r="C56" s="78"/>
-      <c r="D56" s="78"/>
-      <c r="E56" s="94"/>
-      <c r="F56" s="84"/>
-      <c r="G56" s="84"/>
-      <c r="H56" s="84"/>
-      <c r="I56" s="84"/>
+      <c r="B56" s="100"/>
+      <c r="C56" s="100"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="116"/>
+      <c r="F56" s="106"/>
+      <c r="G56" s="106"/>
+      <c r="H56" s="106"/>
+      <c r="I56" s="106"/>
     </row>
     <row r="57" ht="15.15" spans="1:9">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="78"/>
-      <c r="C57" s="78"/>
-      <c r="D57" s="78"/>
-      <c r="E57" s="94"/>
-      <c r="F57" s="84"/>
-      <c r="G57" s="84"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="84"/>
+      <c r="B57" s="100"/>
+      <c r="C57" s="100"/>
+      <c r="D57" s="100"/>
+      <c r="E57" s="116"/>
+      <c r="F57" s="106"/>
+      <c r="G57" s="106"/>
+      <c r="H57" s="106"/>
+      <c r="I57" s="106"/>
     </row>
     <row r="58" ht="15.15" spans="1:9">
-      <c r="A58" s="77" t="s">
+      <c r="A58" s="99" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="94"/>
-      <c r="F58" s="84"/>
-      <c r="G58" s="84"/>
-      <c r="H58" s="84"/>
-      <c r="I58" s="84"/>
+      <c r="B58" s="100"/>
+      <c r="C58" s="100"/>
+      <c r="D58" s="100"/>
+      <c r="E58" s="116"/>
+      <c r="F58" s="106"/>
+      <c r="G58" s="106"/>
+      <c r="H58" s="106"/>
+      <c r="I58" s="106"/>
     </row>
     <row r="59" ht="15.15" spans="1:9">
-      <c r="A59" s="84"/>
-      <c r="B59" s="84"/>
-      <c r="C59" s="84"/>
-      <c r="D59" s="84"/>
-      <c r="E59" s="84"/>
-      <c r="F59" s="84"/>
-      <c r="G59" s="84"/>
-      <c r="H59" s="84"/>
-      <c r="I59" s="84"/>
+      <c r="A59" s="106"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="106"/>
+      <c r="E59" s="106"/>
+      <c r="F59" s="106"/>
+      <c r="G59" s="106"/>
+      <c r="H59" s="106"/>
+      <c r="I59" s="106"/>
     </row>
     <row r="60" ht="15.15" spans="1:9">
-      <c r="A60" s="84"/>
-      <c r="B60" s="84"/>
-      <c r="C60" s="84"/>
-      <c r="D60" s="84"/>
-      <c r="E60" s="84"/>
-      <c r="F60" s="84"/>
-      <c r="G60" s="84"/>
-      <c r="H60" s="84"/>
-      <c r="I60" s="84"/>
+      <c r="A60" s="106"/>
+      <c r="B60" s="106"/>
+      <c r="C60" s="106"/>
+      <c r="D60" s="106"/>
+      <c r="E60" s="106"/>
+      <c r="F60" s="106"/>
+      <c r="G60" s="106"/>
+      <c r="H60" s="106"/>
+      <c r="I60" s="106"/>
     </row>
     <row r="61" ht="15.15" spans="1:9">
-      <c r="A61" s="84"/>
-      <c r="B61" s="84"/>
-      <c r="C61" s="84"/>
-      <c r="D61" s="84"/>
-      <c r="E61" s="84"/>
-      <c r="F61" s="84"/>
-      <c r="G61" s="84"/>
-      <c r="H61" s="84"/>
-      <c r="I61" s="84"/>
+      <c r="A61" s="106"/>
+      <c r="B61" s="106"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
     </row>
     <row r="62" ht="15.15" spans="1:9">
-      <c r="A62" s="84"/>
-      <c r="B62" s="84"/>
-      <c r="C62" s="84"/>
-      <c r="D62" s="84"/>
-      <c r="E62" s="84"/>
-      <c r="F62" s="84"/>
-      <c r="G62" s="84"/>
-      <c r="H62" s="84"/>
-      <c r="I62" s="84"/>
+      <c r="A62" s="106"/>
+      <c r="B62" s="106"/>
+      <c r="C62" s="106"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
     </row>
     <row r="63" ht="15.15" spans="1:9">
-      <c r="A63" s="84"/>
-      <c r="B63" s="84"/>
-      <c r="C63" s="84"/>
-      <c r="D63" s="84"/>
-      <c r="E63" s="84"/>
-      <c r="F63" s="84"/>
-      <c r="G63" s="84"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
+      <c r="A63" s="106"/>
+      <c r="B63" s="106"/>
+      <c r="C63" s="106"/>
+      <c r="D63" s="106"/>
+      <c r="E63" s="106"/>
+      <c r="F63" s="106"/>
+      <c r="G63" s="106"/>
+      <c r="H63" s="106"/>
+      <c r="I63" s="106"/>
     </row>
     <row r="64" ht="15.15" spans="1:9">
-      <c r="A64" s="84"/>
-      <c r="B64" s="84"/>
-      <c r="C64" s="84"/>
-      <c r="D64" s="84"/>
-      <c r="E64" s="84"/>
-      <c r="F64" s="84"/>
-      <c r="G64" s="84"/>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
+      <c r="A64" s="106"/>
+      <c r="B64" s="106"/>
+      <c r="C64" s="106"/>
+      <c r="D64" s="106"/>
+      <c r="E64" s="106"/>
+      <c r="F64" s="106"/>
+      <c r="G64" s="106"/>
+      <c r="H64" s="106"/>
+      <c r="I64" s="106"/>
     </row>
     <row r="65" ht="15.15" spans="1:9">
-      <c r="A65" s="84"/>
-      <c r="B65" s="84"/>
-      <c r="C65" s="84"/>
-      <c r="D65" s="84"/>
-      <c r="E65" s="84"/>
-      <c r="F65" s="84"/>
-      <c r="G65" s="84"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
+      <c r="A65" s="106"/>
+      <c r="B65" s="106"/>
+      <c r="C65" s="106"/>
+      <c r="D65" s="106"/>
+      <c r="E65" s="106"/>
+      <c r="F65" s="106"/>
+      <c r="G65" s="106"/>
+      <c r="H65" s="106"/>
+      <c r="I65" s="106"/>
     </row>
     <row r="66" ht="15.15" spans="1:9">
-      <c r="A66" s="84"/>
-      <c r="B66" s="84"/>
-      <c r="C66" s="84"/>
-      <c r="D66" s="84"/>
-      <c r="E66" s="84"/>
-      <c r="F66" s="84"/>
-      <c r="G66" s="84"/>
-      <c r="H66" s="84"/>
-      <c r="I66" s="84"/>
+      <c r="A66" s="106"/>
+      <c r="B66" s="106"/>
+      <c r="C66" s="106"/>
+      <c r="D66" s="106"/>
+      <c r="E66" s="106"/>
+      <c r="F66" s="106"/>
+      <c r="G66" s="106"/>
+      <c r="H66" s="106"/>
+      <c r="I66" s="106"/>
     </row>
     <row r="67" ht="15.15" spans="1:9">
-      <c r="A67" s="84"/>
-      <c r="B67" s="84"/>
-      <c r="C67" s="84"/>
-      <c r="D67" s="84"/>
-      <c r="E67" s="84"/>
-      <c r="F67" s="84"/>
-      <c r="G67" s="84"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
+      <c r="A67" s="106"/>
+      <c r="B67" s="106"/>
+      <c r="C67" s="106"/>
+      <c r="D67" s="106"/>
+      <c r="E67" s="106"/>
+      <c r="F67" s="106"/>
+      <c r="G67" s="106"/>
+      <c r="H67" s="106"/>
+      <c r="I67" s="106"/>
     </row>
     <row r="68" ht="15.15" spans="1:9">
-      <c r="A68" s="84"/>
-      <c r="B68" s="84"/>
-      <c r="C68" s="84"/>
-      <c r="D68" s="84"/>
-      <c r="E68" s="84"/>
-      <c r="F68" s="84"/>
-      <c r="G68" s="84"/>
-      <c r="H68" s="84"/>
-      <c r="I68" s="84"/>
+      <c r="A68" s="106"/>
+      <c r="B68" s="106"/>
+      <c r="C68" s="106"/>
+      <c r="D68" s="106"/>
+      <c r="E68" s="106"/>
+      <c r="F68" s="106"/>
+      <c r="G68" s="106"/>
+      <c r="H68" s="106"/>
+      <c r="I68" s="106"/>
     </row>
     <row r="69" ht="15.15" spans="1:9">
-      <c r="A69" s="84"/>
-      <c r="B69" s="84"/>
-      <c r="C69" s="84"/>
-      <c r="D69" s="84"/>
-      <c r="E69" s="84"/>
-      <c r="F69" s="84"/>
-      <c r="G69" s="84"/>
-      <c r="H69" s="84"/>
-      <c r="I69" s="84"/>
+      <c r="A69" s="106"/>
+      <c r="B69" s="106"/>
+      <c r="C69" s="106"/>
+      <c r="D69" s="106"/>
+      <c r="E69" s="106"/>
+      <c r="F69" s="106"/>
+      <c r="G69" s="106"/>
+      <c r="H69" s="106"/>
+      <c r="I69" s="106"/>
     </row>
     <row r="70" ht="15.15" spans="1:9">
-      <c r="A70" s="84"/>
-      <c r="B70" s="84"/>
-      <c r="C70" s="84"/>
-      <c r="D70" s="84"/>
-      <c r="E70" s="84"/>
-      <c r="F70" s="84"/>
-      <c r="G70" s="84"/>
-      <c r="H70" s="84"/>
-      <c r="I70" s="84"/>
+      <c r="A70" s="106"/>
+      <c r="B70" s="106"/>
+      <c r="C70" s="106"/>
+      <c r="D70" s="106"/>
+      <c r="E70" s="106"/>
+      <c r="F70" s="106"/>
+      <c r="G70" s="106"/>
+      <c r="H70" s="106"/>
+      <c r="I70" s="106"/>
     </row>
     <row r="71" ht="15.15" spans="1:9">
-      <c r="A71" s="84"/>
-      <c r="B71" s="84"/>
-      <c r="C71" s="84"/>
-      <c r="D71" s="84"/>
-      <c r="E71" s="84"/>
-      <c r="F71" s="84"/>
-      <c r="G71" s="84"/>
-      <c r="H71" s="84"/>
-      <c r="I71" s="84"/>
+      <c r="A71" s="106"/>
+      <c r="B71" s="106"/>
+      <c r="C71" s="106"/>
+      <c r="D71" s="106"/>
+      <c r="E71" s="106"/>
+      <c r="F71" s="106"/>
+      <c r="G71" s="106"/>
+      <c r="H71" s="106"/>
+      <c r="I71" s="106"/>
     </row>
     <row r="72" ht="15.15" spans="1:9">
-      <c r="A72" s="84"/>
-      <c r="B72" s="84"/>
-      <c r="C72" s="84"/>
-      <c r="D72" s="84"/>
-      <c r="E72" s="84"/>
-      <c r="F72" s="84"/>
-      <c r="G72" s="84"/>
-      <c r="H72" s="84"/>
-      <c r="I72" s="84"/>
+      <c r="A72" s="106"/>
+      <c r="B72" s="106"/>
+      <c r="C72" s="106"/>
+      <c r="D72" s="106"/>
+      <c r="E72" s="106"/>
+      <c r="F72" s="106"/>
+      <c r="G72" s="106"/>
+      <c r="H72" s="106"/>
+      <c r="I72" s="106"/>
     </row>
     <row r="73" ht="15.15" spans="1:9">
-      <c r="A73" s="84"/>
-      <c r="B73" s="84"/>
-      <c r="C73" s="84"/>
-      <c r="D73" s="84"/>
-      <c r="E73" s="84"/>
-      <c r="F73" s="84"/>
-      <c r="G73" s="84"/>
-      <c r="H73" s="84"/>
-      <c r="I73" s="84"/>
+      <c r="A73" s="106"/>
+      <c r="B73" s="106"/>
+      <c r="C73" s="106"/>
+      <c r="D73" s="106"/>
+      <c r="E73" s="106"/>
+      <c r="F73" s="106"/>
+      <c r="G73" s="106"/>
+      <c r="H73" s="106"/>
+      <c r="I73" s="106"/>
     </row>
     <row r="74" ht="15.15" spans="1:9">
-      <c r="A74" s="84"/>
-      <c r="B74" s="84"/>
-      <c r="C74" s="84"/>
-      <c r="D74" s="84"/>
-      <c r="E74" s="84"/>
-      <c r="F74" s="84"/>
-      <c r="G74" s="84"/>
-      <c r="H74" s="84"/>
-      <c r="I74" s="84"/>
+      <c r="A74" s="106"/>
+      <c r="B74" s="106"/>
+      <c r="C74" s="106"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="106"/>
+      <c r="F74" s="106"/>
+      <c r="G74" s="106"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="106"/>
     </row>
     <row r="75" ht="15.15" spans="1:9">
-      <c r="A75" s="84"/>
-      <c r="B75" s="84"/>
-      <c r="C75" s="84"/>
-      <c r="D75" s="84"/>
-      <c r="E75" s="84"/>
-      <c r="F75" s="84"/>
-      <c r="G75" s="84"/>
-      <c r="H75" s="84"/>
-      <c r="I75" s="84"/>
+      <c r="A75" s="106"/>
+      <c r="B75" s="106"/>
+      <c r="C75" s="106"/>
+      <c r="D75" s="106"/>
+      <c r="E75" s="106"/>
+      <c r="F75" s="106"/>
+      <c r="G75" s="106"/>
+      <c r="H75" s="106"/>
+      <c r="I75" s="106"/>
     </row>
     <row r="76" ht="15.15" spans="1:9">
-      <c r="A76" s="84"/>
-      <c r="B76" s="84"/>
-      <c r="C76" s="84"/>
-      <c r="D76" s="84"/>
-      <c r="E76" s="84"/>
-      <c r="F76" s="84"/>
-      <c r="G76" s="84"/>
-      <c r="H76" s="84"/>
-      <c r="I76" s="84"/>
+      <c r="A76" s="106"/>
+      <c r="B76" s="106"/>
+      <c r="C76" s="106"/>
+      <c r="D76" s="106"/>
+      <c r="E76" s="106"/>
+      <c r="F76" s="106"/>
+      <c r="G76" s="106"/>
+      <c r="H76" s="106"/>
+      <c r="I76" s="106"/>
     </row>
     <row r="77" ht="15.15" spans="1:9">
-      <c r="A77" s="84"/>
-      <c r="B77" s="84"/>
-      <c r="C77" s="84"/>
-      <c r="D77" s="84"/>
-      <c r="E77" s="84"/>
-      <c r="F77" s="84"/>
-      <c r="G77" s="84"/>
-      <c r="H77" s="84"/>
-      <c r="I77" s="84"/>
+      <c r="A77" s="106"/>
+      <c r="B77" s="106"/>
+      <c r="C77" s="106"/>
+      <c r="D77" s="106"/>
+      <c r="E77" s="106"/>
+      <c r="F77" s="106"/>
+      <c r="G77" s="106"/>
+      <c r="H77" s="106"/>
+      <c r="I77" s="106"/>
     </row>
     <row r="78" ht="15.15" spans="1:9">
-      <c r="A78" s="84"/>
-      <c r="B78" s="84"/>
-      <c r="C78" s="84"/>
-      <c r="D78" s="84"/>
-      <c r="E78" s="84"/>
-      <c r="F78" s="84"/>
-      <c r="G78" s="84"/>
-      <c r="H78" s="84"/>
-      <c r="I78" s="84"/>
+      <c r="A78" s="106"/>
+      <c r="B78" s="106"/>
+      <c r="C78" s="106"/>
+      <c r="D78" s="106"/>
+      <c r="E78" s="106"/>
+      <c r="F78" s="106"/>
+      <c r="G78" s="106"/>
+      <c r="H78" s="106"/>
+      <c r="I78" s="106"/>
     </row>
     <row r="79" ht="15.15" spans="1:9">
-      <c r="A79" s="84"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="84"/>
-      <c r="H79" s="84"/>
-      <c r="I79" s="84"/>
+      <c r="A79" s="106"/>
+      <c r="B79" s="106"/>
+      <c r="C79" s="106"/>
+      <c r="D79" s="106"/>
+      <c r="E79" s="106"/>
+      <c r="F79" s="106"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="106"/>
+      <c r="I79" s="106"/>
     </row>
     <row r="80" ht="15.15" spans="1:9">
-      <c r="A80" s="84"/>
-      <c r="B80" s="84"/>
-      <c r="C80" s="84"/>
-      <c r="D80" s="84"/>
-      <c r="E80" s="84"/>
-      <c r="F80" s="84"/>
-      <c r="G80" s="84"/>
-      <c r="H80" s="84"/>
-      <c r="I80" s="84"/>
+      <c r="A80" s="106"/>
+      <c r="B80" s="106"/>
+      <c r="C80" s="106"/>
+      <c r="D80" s="106"/>
+      <c r="E80" s="106"/>
+      <c r="F80" s="106"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="106"/>
+      <c r="I80" s="106"/>
     </row>
     <row r="81" ht="15.15" spans="1:9">
-      <c r="A81" s="84"/>
-      <c r="B81" s="84"/>
-      <c r="C81" s="84"/>
-      <c r="D81" s="84"/>
-      <c r="E81" s="84"/>
-      <c r="F81" s="84"/>
-      <c r="G81" s="84"/>
-      <c r="H81" s="84"/>
-      <c r="I81" s="84"/>
+      <c r="A81" s="106"/>
+      <c r="B81" s="106"/>
+      <c r="C81" s="106"/>
+      <c r="D81" s="106"/>
+      <c r="E81" s="106"/>
+      <c r="F81" s="106"/>
+      <c r="G81" s="106"/>
+      <c r="H81" s="106"/>
+      <c r="I81" s="106"/>
     </row>
     <row r="82" ht="15.15" spans="1:9">
-      <c r="A82" s="84"/>
-      <c r="B82" s="84"/>
-      <c r="C82" s="84"/>
-      <c r="D82" s="84"/>
-      <c r="E82" s="84"/>
-      <c r="F82" s="84"/>
-      <c r="G82" s="84"/>
-      <c r="H82" s="84"/>
-      <c r="I82" s="84"/>
+      <c r="A82" s="106"/>
+      <c r="B82" s="106"/>
+      <c r="C82" s="106"/>
+      <c r="D82" s="106"/>
+      <c r="E82" s="106"/>
+      <c r="F82" s="106"/>
+      <c r="G82" s="106"/>
+      <c r="H82" s="106"/>
+      <c r="I82" s="106"/>
     </row>
     <row r="83" ht="15.15" spans="1:9">
-      <c r="A83" s="84"/>
-      <c r="B83" s="84"/>
-      <c r="C83" s="84"/>
-      <c r="D83" s="84"/>
-      <c r="E83" s="84"/>
-      <c r="F83" s="84"/>
-      <c r="G83" s="84"/>
-      <c r="H83" s="84"/>
-      <c r="I83" s="84"/>
+      <c r="A83" s="106"/>
+      <c r="B83" s="106"/>
+      <c r="C83" s="106"/>
+      <c r="D83" s="106"/>
+      <c r="E83" s="106"/>
+      <c r="F83" s="106"/>
+      <c r="G83" s="106"/>
+      <c r="H83" s="106"/>
+      <c r="I83" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4563,9 +4951,867 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>115</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:8">
+      <c r="A2" s="53"/>
+      <c r="B2" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:8">
+      <c r="A3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="55">
+        <v>1</v>
+      </c>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" ht="29.55" spans="1:8">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="64">
+        <v>45098</v>
+      </c>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:8">
+      <c r="A5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:8">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:8">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:8">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" ht="43.95" spans="1:8">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="65">
+        <v>4</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="65">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="58.35" spans="1:8">
+      <c r="A11" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="70">
+        <v>1</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" ht="72.75" spans="1:8">
+      <c r="A13" s="70">
+        <v>2</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" ht="43.95" spans="1:8">
+      <c r="A14" s="70">
+        <v>3</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:8">
+      <c r="A15" s="70">
+        <v>4</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="71"/>
+      <c r="G15" s="74" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" ht="15.15" spans="1:8">
+      <c r="A16" s="76"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:8">
+      <c r="A2" s="53"/>
+      <c r="B2" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>152</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:8">
+      <c r="A3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="55">
+        <v>2</v>
+      </c>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>153</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="64">
+        <v>45098</v>
+      </c>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:8">
+      <c r="A5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:8">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:8">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:8">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" ht="15.15" spans="1:8">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62" t="s">
+        <v>154</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="65">
+        <v>4</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="65">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:8">
+      <c r="A11" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="70">
+        <v>1</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" ht="29.55" spans="1:8">
+      <c r="A13" s="70">
+        <v>2</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>155</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72" t="s">
+        <v>157</v>
+      </c>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" ht="58.35" spans="1:8">
+      <c r="A14" s="70">
+        <v>3</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>158</v>
+      </c>
+      <c r="D14" s="71"/>
+      <c r="E14" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72" t="s">
+        <v>159</v>
+      </c>
+      <c r="H14" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:8">
+      <c r="A15" s="70"/>
+      <c r="B15" s="71"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="74"/>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" ht="15.15" spans="1:8">
+      <c r="A16" s="76"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71"/>
+      <c r="H16" s="77"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:8">
+      <c r="A2" s="53"/>
+      <c r="B2" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:8">
+      <c r="A3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="55">
+        <v>4</v>
+      </c>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="64">
+        <v>45098</v>
+      </c>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:8">
+      <c r="A5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:8">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:8">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:8">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" ht="15.15" spans="1:8">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="65">
+        <v>4</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="65">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:8">
+      <c r="A11" s="67" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="70">
+        <v>1</v>
+      </c>
+      <c r="B12" s="71" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="72" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="71"/>
+    </row>
+    <row r="13" ht="43.95" spans="1:8">
+      <c r="A13" s="70">
+        <v>2</v>
+      </c>
+      <c r="B13" s="71" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="D13" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="71"/>
+      <c r="F13" s="71"/>
+      <c r="G13" s="72" t="s">
+        <v>166</v>
+      </c>
+      <c r="H13" s="71"/>
+    </row>
+    <row r="14" ht="29.55" spans="1:8">
+      <c r="A14" s="70">
+        <v>3</v>
+      </c>
+      <c r="B14" s="71" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="D14" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="72" t="s">
+        <v>168</v>
+      </c>
+      <c r="H14" s="73"/>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:8">
+      <c r="A15" s="70">
+        <v>4</v>
+      </c>
+      <c r="B15" s="71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="71" t="s">
+        <v>170</v>
+      </c>
+      <c r="D15" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="74" t="s">
+        <v>171</v>
+      </c>
+      <c r="H15" s="75"/>
+    </row>
+    <row r="16" ht="43.95" spans="1:8">
+      <c r="A16" s="76">
+        <v>5</v>
+      </c>
+      <c r="B16" s="71" t="s">
+        <v>172</v>
+      </c>
+      <c r="C16" s="71" t="s">
+        <v>173</v>
+      </c>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71" t="s">
+        <v>149</v>
+      </c>
+      <c r="F16" s="71"/>
+      <c r="G16" s="71" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="77">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
@@ -4579,257 +5825,257 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="53"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
+      <c r="N1" s="50"/>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="50"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="51"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="50"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="47"/>
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="50"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="47"/>
+      <c r="J3" s="48"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="48"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="47"/>
     </row>
     <row r="4" spans="1:14">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
+      <c r="B4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="51"/>
-      <c r="M4" s="52"/>
-      <c r="N4" s="50"/>
+        <v>183</v>
+      </c>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="47"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="47"/>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>125</v>
-      </c>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="50"/>
+      <c r="D5" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="47"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="48"/>
+      <c r="M5" s="49"/>
+      <c r="N5" s="47"/>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="50"/>
-      <c r="J6" s="51"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="51"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="50"/>
+      <c r="A6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="48"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="48"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="47"/>
     </row>
     <row r="7" ht="185.55" customHeight="1" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="54"/>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="50"/>
+        <v>188</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>189</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="47"/>
+      <c r="J7" s="51"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="47"/>
     </row>
     <row r="8" ht="27.9" customHeight="1" spans="1:14">
-      <c r="A8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="51"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-      <c r="M8" s="52"/>
-      <c r="N8" s="50"/>
+      <c r="A8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="47"/>
+      <c r="J8" s="48"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+      <c r="M8" s="49"/>
+      <c r="N8" s="47"/>
     </row>
     <row r="9" spans="1:14">
-      <c r="A9" s="31"/>
-      <c r="B9" s="32"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-      <c r="L9" s="50"/>
-      <c r="M9" s="50"/>
-      <c r="N9" s="50"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="30"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="27"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="47"/>
+      <c r="K9" s="47"/>
+      <c r="L9" s="47"/>
+      <c r="M9" s="47"/>
+      <c r="N9" s="47"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="34"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="40"/>
+      <c r="A10" s="32"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="34"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
+      <c r="A11" s="32"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="35"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="42"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="12"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="42"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="17"/>
-      <c r="H13" s="12"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="42"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="12"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" ht="15.15" spans="1:8">
-      <c r="A15" s="46"/>
-      <c r="B15" s="47"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="46"/>
-      <c r="F15" s="46"/>
-      <c r="G15" s="46"/>
-      <c r="H15" s="46"/>
+      <c r="A15" s="43"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -4843,7 +6089,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
@@ -4862,101 +6108,101 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="26.4" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5">
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="26.4" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" ht="39.6" spans="1:4">
-      <c r="A4" s="11" t="s">
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
+      <c r="B4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>134</v>
+      <c r="D5" s="13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="7" ht="409.5" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" ht="158.4" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" ht="43.95" spans="1:4">
-      <c r="A8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+        <v>188</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4968,7 +6214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
@@ -4985,23 +6231,23 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
     <row r="2" ht="26.4" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5">
         <v>3</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7">
         <v>3</v>
@@ -5009,30 +6255,30 @@
     </row>
     <row r="3" ht="26.4" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>137</v>
+        <v>195</v>
       </c>
     </row>
     <row r="4" ht="39.6" spans="1:4">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
+      <c r="B4" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:4">
@@ -5040,42 +6286,42 @@
         <v>39</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14"/>
+      <c r="D5" s="13"/>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7" ht="382.8" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" ht="198" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>140</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" ht="43.95" spans="1:4">
-      <c r="A8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+        <v>188</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5086,12 +6332,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -5105,101 +6351,101 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>114</v>
+        <v>175</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>115</v>
+        <v>176</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" ht="26.4" spans="1:4">
+    <row r="2" spans="1:4">
       <c r="A2" s="4" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5">
         <v>4</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>117</v>
+        <v>177</v>
       </c>
       <c r="D2" s="7">
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="26.4" spans="1:4">
+    <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>118</v>
+        <v>178</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>119</v>
+        <v>179</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>120</v>
+        <v>180</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" ht="39.6" spans="1:4">
-      <c r="A4" s="11" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
+      <c r="B4" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>182</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:4">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>142</v>
+      <c r="D5" s="13" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" ht="382.8" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" ht="198" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>144</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" ht="43.95" spans="1:4">
-      <c r="A8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
+        <v>188</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5209,121 +6455,4 @@
   <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="22.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="11.3333333333333" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="28.8" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="5">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" s="7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" ht="39.6" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" ht="39.6" spans="1:4">
-      <c r="A4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="16"/>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="7" ht="382.8" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B7" s="17" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19"/>
-    </row>
-    <row r="8" ht="43.95" spans="1:4">
-      <c r="A8" s="20" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" s="21"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/files/TextFilter.xlsx
+++ b/files/TextFilter.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9215" firstSheet="4" activeTab="4"/>
+    <workbookView windowWidth="23040" windowHeight="9215" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-план" sheetId="1" r:id="rId1"/>
@@ -12,18 +12,20 @@
     <sheet name="Тест-кейс" sheetId="9" r:id="rId3"/>
     <sheet name="Тест-кейс (2)" sheetId="10" r:id="rId4"/>
     <sheet name="Тест-кейс (3)" sheetId="11" r:id="rId5"/>
-    <sheet name="Дефект Клименков" sheetId="4" r:id="rId6"/>
-    <sheet name="Дефект Карпов" sheetId="5" r:id="rId7"/>
-    <sheet name="Дефект Юрова" sheetId="6" r:id="rId8"/>
-    <sheet name="Дефект Тихонова" sheetId="7" r:id="rId9"/>
-    <sheet name="Дефект Ефремов" sheetId="8" r:id="rId10"/>
+    <sheet name="Тест-кейс (4)" sheetId="12" r:id="rId6"/>
+    <sheet name="Тест-кейс (5)" sheetId="13" r:id="rId7"/>
+    <sheet name="Дефект Клименков" sheetId="4" r:id="rId8"/>
+    <sheet name="Дефект Карпов" sheetId="5" r:id="rId9"/>
+    <sheet name="Дефект Юрова" sheetId="6" r:id="rId10"/>
+    <sheet name="Дефект Тихонова" sheetId="7" r:id="rId11"/>
+    <sheet name="Дефект Ефремов" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="213">
   <si>
     <t>Тест-план по системному тестированию тренажёра по МЛТА</t>
   </si>
@@ -983,6 +985,39 @@
     <t>Появилось уведомление об ошибке авторизации</t>
   </si>
   <si>
+    <t>Проверка вывода условий заданий</t>
+  </si>
+  <si>
+    <t>Проверка на наличие верного вывода задания</t>
+  </si>
+  <si>
+    <t>Юрова</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ввести данные для входа </t>
+  </si>
+  <si>
+    <t>Поля авторизации заполнены</t>
+  </si>
+  <si>
+    <t>поля авторизации заполнено</t>
+  </si>
+  <si>
+    <t>Вход в приложении</t>
+  </si>
+  <si>
+    <t>Мы зашли в приложение</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Task</t>
+  </si>
+  <si>
+    <t>Появится задание и поле ответ</t>
+  </si>
+  <si>
+    <t>Появилось задание и поле ответ</t>
+  </si>
+  <si>
     <t>Предупреждение о незаполненности поля ответ</t>
   </si>
   <si>
@@ -996,30 +1031,6 @@
     <t>шагов 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Ввести данные для входа </t>
-  </si>
-  <si>
-    <t>Поля авторизации заполнены</t>
-  </si>
-  <si>
-    <t>поля авторизации заполнено</t>
-  </si>
-  <si>
-    <t>Вход в приложении</t>
-  </si>
-  <si>
-    <t>Мы зашли в приложение</t>
-  </si>
-  <si>
-    <t>Нажать на кнопку Task</t>
-  </si>
-  <si>
-    <t>Появится задание и поле ответ</t>
-  </si>
-  <si>
-    <t>Появилось задание и поле ответ</t>
-  </si>
-  <si>
     <t>Нажать на кнопку ответить</t>
   </si>
   <si>
@@ -1029,6 +1040,24 @@
     <t>Сервер прекратил свою работу</t>
   </si>
   <si>
+    <t>Правильность работы кнопки выход</t>
+  </si>
+  <si>
+    <t>При нажатии кнопки выход приложение будет закрываться</t>
+  </si>
+  <si>
+    <t>Ефремов</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку Выход</t>
+  </si>
+  <si>
+    <t>Приложение закроется</t>
+  </si>
+  <si>
+    <t>Приложение закрылось</t>
+  </si>
+  <si>
     <t>Название</t>
   </si>
   <si>
@@ -1095,9 +1124,6 @@
     <t>closed</t>
   </si>
   <si>
-    <t>Юрова</t>
-  </si>
-  <si>
     <t xml:space="preserve">Шаги воспроизведения деффекта                    1Запустить приложение   2Ввести значения во все поля окна авторизации                 3Нажать на кнопку вход 4Выбрать любое задание Task                           .Ожидаемый результат:              Вывод на экран выбранного задания  .Наблюдаемый результат:                    Вывод на экран выбранного задания   </t>
   </si>
   <si>
@@ -1114,9 +1140,6 @@
   </si>
   <si>
     <t>Close</t>
-  </si>
-  <si>
-    <t>Ефремов</t>
   </si>
   <si>
     <t xml:space="preserve">Шаги воспроизведения деффекта                    1Запустить приложение   2Ввести значения во все поля окна авторизации                 3Нажать на кнопку вход 4Нажать на кнопку выход                     .Ожидаемый результат:      Приложение закроется       .Наблюдаемый результат: Приложение закрылось  </t>
@@ -1127,12 +1150,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="dd\.mm\.yyyy"/>
-    <numFmt numFmtId="181" formatCode="\2\.\5"/>
+    <numFmt numFmtId="176" formatCode="\2\.\5"/>
+    <numFmt numFmtId="177" formatCode="_-* #\.##0.00_-;\-* #\.##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #\.##0\ &quot;₽&quot;_-;\-* #\.##0\ &quot;₽&quot;_-;_-* \-\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #\.##0_-;\-* #\.##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="_-* #\.##0.00\ &quot;₽&quot;_-;\-* #\.##0.00\ &quot;₽&quot;_-;_-* \-??\ &quot;₽&quot;_-;_-@_-"/>
+    <numFmt numFmtId="181" formatCode="dd\.mm\.yyyy"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -1189,8 +1212,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1204,9 +1236,54 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,75 +1298,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1303,8 +1312,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1319,15 +1336,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1396,13 +1419,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1414,13 +1521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1432,73 +1545,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1516,25 +1569,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1546,19 +1581,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2194,10 +2217,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -2233,6 +2282,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -2250,44 +2308,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2296,152 +2319,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="49" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="49" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="51" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="50" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="48" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="53" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="54" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="47" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="53" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="54" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="145">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2627,10 +2650,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2696,7 +2716,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="180" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="5" fillId="5" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2861,7 +2881,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3383,315 +3403,315 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" style="78"/>
-    <col min="2" max="2" width="21.287037037037" style="78" customWidth="1"/>
-    <col min="3" max="3" width="11.1388888888889" style="78" customWidth="1"/>
-    <col min="4" max="4" width="53.1018518518519" style="78" customWidth="1"/>
-    <col min="5" max="6" width="9.13888888888889" style="78"/>
-    <col min="7" max="7" width="20.1018518518519" style="78" customWidth="1"/>
-    <col min="8" max="8" width="27.4259259259259" style="78" customWidth="1"/>
-    <col min="9" max="9" width="27.5740740740741" style="78" customWidth="1"/>
-    <col min="10" max="10" width="25.1111111111111" style="78" customWidth="1"/>
-    <col min="11" max="11" width="9.13888888888889" style="78"/>
+    <col min="1" max="1" width="9.13888888888889" style="77"/>
+    <col min="2" max="2" width="21.287037037037" style="77" customWidth="1"/>
+    <col min="3" max="3" width="11.1388888888889" style="77" customWidth="1"/>
+    <col min="4" max="4" width="53.1018518518519" style="77" customWidth="1"/>
+    <col min="5" max="6" width="9.13888888888889" style="77"/>
+    <col min="7" max="7" width="20.1018518518519" style="77" customWidth="1"/>
+    <col min="8" max="8" width="27.4259259259259" style="77" customWidth="1"/>
+    <col min="9" max="9" width="27.5740740740741" style="77" customWidth="1"/>
+    <col min="10" max="10" width="25.1111111111111" style="77" customWidth="1"/>
+    <col min="11" max="11" width="9.13888888888889" style="77"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129"/>
-      <c r="C1" s="129"/>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="130"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="129"/>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="130" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="129"/>
-      <c r="C2" s="129"/>
-      <c r="D2" s="129"/>
-      <c r="E2" s="129"/>
-      <c r="F2" s="130"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="129"/>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="132" t="s">
+      <c r="A3" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="133"/>
-      <c r="C3" s="133"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="129"/>
-      <c r="F3" s="130"/>
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="129"/>
     </row>
     <row r="4" spans="1:6">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
+      <c r="A4" s="128"/>
+      <c r="B4" s="128"/>
+      <c r="C4" s="128"/>
+      <c r="D4" s="128"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
     </row>
     <row r="5" spans="1:6">
-      <c r="A5" s="133" t="s">
+      <c r="A5" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="133"/>
-      <c r="C5" s="133"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="130"/>
+      <c r="B5" s="132"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="133"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="129"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="130"/>
+      <c r="A6" s="128"/>
+      <c r="B6" s="128"/>
+      <c r="C6" s="128"/>
+      <c r="D6" s="128"/>
+      <c r="E6" s="128"/>
+      <c r="F6" s="129"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
+      <c r="A7" s="128"/>
+      <c r="B7" s="128"/>
+      <c r="C7" s="128"/>
+      <c r="D7" s="128"/>
+      <c r="E7" s="128"/>
+      <c r="F7" s="129"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="134" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="136"/>
-      <c r="D8" s="136"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="130"/>
+      <c r="B8" s="134"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="129"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="136"/>
-      <c r="B9" s="136"/>
-      <c r="C9" s="136"/>
-      <c r="D9" s="136"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
+      <c r="A9" s="135"/>
+      <c r="B9" s="135"/>
+      <c r="C9" s="135"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="128"/>
+      <c r="F9" s="129"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
+      <c r="A10" s="128"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="129"/>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="137" t="s">
+      <c r="A11" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="B11" s="137" t="s">
+      <c r="B11" s="136" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="137" t="s">
+      <c r="C11" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="137" t="s">
+      <c r="D11" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="137" t="s">
+      <c r="E11" s="136" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="138" t="s">
+      <c r="F11" s="137" t="s">
         <v>10</v>
       </c>
-      <c r="G11" s="137" t="s">
+      <c r="G11" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="137" t="s">
+      <c r="H11" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="137" t="s">
+      <c r="I11" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="J11" s="137" t="s">
+      <c r="J11" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="K11" s="142" t="s">
+      <c r="K11" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="L11" s="143"/>
+      <c r="L11" s="142"/>
       <c r="M11" s="47"/>
       <c r="N11" s="47"/>
       <c r="O11" s="47"/>
       <c r="P11" s="47"/>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="139"/>
-      <c r="B12" s="139" t="s">
+      <c r="A12" s="138"/>
+      <c r="B12" s="138" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="139">
+      <c r="C12" s="138">
         <v>1</v>
       </c>
-      <c r="D12" s="139" t="s">
+      <c r="D12" s="138" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="139">
+      <c r="E12" s="138">
         <v>0.5</v>
       </c>
-      <c r="F12" s="139"/>
-      <c r="G12" s="139" t="s">
+      <c r="F12" s="138"/>
+      <c r="G12" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="H12" s="139"/>
-      <c r="I12" s="139"/>
-      <c r="J12" s="139" t="s">
+      <c r="H12" s="138"/>
+      <c r="I12" s="138"/>
+      <c r="J12" s="138" t="s">
         <v>19</v>
       </c>
-      <c r="K12" s="144"/>
-      <c r="L12" s="143"/>
+      <c r="K12" s="143"/>
+      <c r="L12" s="142"/>
       <c r="M12" s="47"/>
       <c r="N12" s="47"/>
       <c r="O12" s="47"/>
       <c r="P12" s="47"/>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="139"/>
-      <c r="B13" s="139" t="s">
+      <c r="A13" s="138"/>
+      <c r="B13" s="138" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="139">
+      <c r="C13" s="138">
         <v>1</v>
       </c>
-      <c r="D13" s="139" t="s">
+      <c r="D13" s="138" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="139">
+      <c r="E13" s="138">
         <v>0.5</v>
       </c>
-      <c r="F13" s="139"/>
-      <c r="G13" s="139" t="s">
+      <c r="F13" s="138"/>
+      <c r="G13" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="139"/>
-      <c r="I13" s="139"/>
-      <c r="J13" s="139" t="s">
+      <c r="H13" s="138"/>
+      <c r="I13" s="138"/>
+      <c r="J13" s="138" t="s">
         <v>22</v>
       </c>
-      <c r="K13" s="144"/>
-      <c r="L13" s="143"/>
+      <c r="K13" s="143"/>
+      <c r="L13" s="142"/>
       <c r="M13" s="47"/>
       <c r="N13" s="47"/>
       <c r="O13" s="47"/>
       <c r="P13" s="47"/>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="139"/>
-      <c r="B14" s="139" t="s">
+      <c r="A14" s="138"/>
+      <c r="B14" s="138" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="139">
+      <c r="C14" s="138">
         <v>2</v>
       </c>
-      <c r="D14" s="139" t="s">
+      <c r="D14" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="139">
+      <c r="E14" s="138">
         <v>0.5</v>
       </c>
-      <c r="F14" s="139"/>
-      <c r="G14" s="139" t="s">
+      <c r="F14" s="138"/>
+      <c r="G14" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="H14" s="139"/>
-      <c r="I14" s="139"/>
-      <c r="J14" s="139" t="s">
+      <c r="H14" s="138"/>
+      <c r="I14" s="138"/>
+      <c r="J14" s="138" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="144"/>
-      <c r="L14" s="143"/>
+      <c r="K14" s="143"/>
+      <c r="L14" s="142"/>
       <c r="M14" s="47"/>
       <c r="N14" s="47"/>
       <c r="O14" s="47"/>
       <c r="P14" s="47"/>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="139"/>
-      <c r="B15" s="139" t="s">
+      <c r="A15" s="138"/>
+      <c r="B15" s="138" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="139">
+      <c r="C15" s="138">
         <v>2</v>
       </c>
-      <c r="D15" s="139" t="s">
+      <c r="D15" s="138" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="139">
+      <c r="E15" s="138">
         <v>0.5</v>
       </c>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139" t="s">
+      <c r="F15" s="138"/>
+      <c r="G15" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139" t="s">
+      <c r="H15" s="138"/>
+      <c r="I15" s="138"/>
+      <c r="J15" s="138" t="s">
         <v>28</v>
       </c>
-      <c r="K15" s="144"/>
-      <c r="L15" s="143"/>
+      <c r="K15" s="143"/>
+      <c r="L15" s="142"/>
       <c r="M15" s="47"/>
       <c r="N15" s="47"/>
       <c r="O15" s="47"/>
       <c r="P15" s="47"/>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="139"/>
-      <c r="B16" s="139" t="s">
+      <c r="A16" s="138"/>
+      <c r="B16" s="138" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="139">
+      <c r="C16" s="138">
         <v>2</v>
       </c>
-      <c r="D16" s="139" t="s">
+      <c r="D16" s="138" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="139" t="s">
+      <c r="E16" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139" t="s">
+      <c r="F16" s="138"/>
+      <c r="G16" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139" t="s">
+      <c r="H16" s="138"/>
+      <c r="I16" s="138"/>
+      <c r="J16" s="138" t="s">
         <v>32</v>
       </c>
-      <c r="K16" s="144"/>
-      <c r="L16" s="143"/>
+      <c r="K16" s="143"/>
+      <c r="L16" s="142"/>
       <c r="M16" s="47"/>
       <c r="N16" s="47"/>
       <c r="O16" s="47"/>
       <c r="P16" s="47"/>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="140" t="s">
+      <c r="A17" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="139"/>
-      <c r="C17" s="139"/>
-      <c r="D17" s="139"/>
-      <c r="E17" s="141">
+      <c r="B17" s="138"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
+      <c r="E17" s="140">
         <v>45048</v>
       </c>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
-      <c r="K17" s="144"/>
-      <c r="L17" s="143"/>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="138"/>
+      <c r="I17" s="138"/>
+      <c r="J17" s="138"/>
+      <c r="K17" s="143"/>
+      <c r="L17" s="142"/>
       <c r="M17" s="47"/>
       <c r="N17" s="47"/>
       <c r="O17" s="47"/>
@@ -3713,6 +3733,249 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
+    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="26.4" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" ht="26.4" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" ht="39.6" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" ht="28.8" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" ht="198" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
+    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="5">
+        <v>4</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" ht="198" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:4">
+      <c r="A8" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="C8" s="21"/>
+      <c r="D8" s="22"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
@@ -3725,10 +3988,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -3741,7 +4004,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D2" s="7">
         <v>5</v>
@@ -3749,16 +4012,16 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" ht="39.6" spans="1:4">
@@ -3766,13 +4029,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3787,29 +4050,29 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" ht="145.2" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" ht="15.15" spans="1:4">
       <c r="A8" s="19" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B8" s="20"/>
       <c r="C8" s="21"/>
@@ -3835,1093 +4098,1093 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.13888888888889" style="78"/>
-    <col min="2" max="2" width="21.4259259259259" style="78" customWidth="1"/>
-    <col min="3" max="3" width="17.4259259259259" style="78" customWidth="1"/>
-    <col min="4" max="4" width="31" style="78" customWidth="1"/>
-    <col min="5" max="5" width="33.287037037037" style="78" customWidth="1"/>
-    <col min="6" max="6" width="9.13888888888889" style="78"/>
-    <col min="7" max="7" width="42.712962962963" style="78" customWidth="1"/>
-    <col min="8" max="8" width="56.712962962963" style="78" customWidth="1"/>
-    <col min="9" max="9" width="13.1388888888889" style="78" customWidth="1"/>
+    <col min="1" max="1" width="9.13888888888889" style="77"/>
+    <col min="2" max="2" width="21.4259259259259" style="77" customWidth="1"/>
+    <col min="3" max="3" width="17.4259259259259" style="77" customWidth="1"/>
+    <col min="4" max="4" width="31" style="77" customWidth="1"/>
+    <col min="5" max="5" width="33.287037037037" style="77" customWidth="1"/>
+    <col min="6" max="6" width="9.13888888888889" style="77"/>
+    <col min="7" max="7" width="42.712962962963" style="77" customWidth="1"/>
+    <col min="8" max="8" width="56.712962962963" style="77" customWidth="1"/>
+    <col min="9" max="9" width="13.1388888888889" style="77" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31.5" customHeight="1" spans="1:9">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="78" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="82" t="s">
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="81" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="83"/>
-      <c r="G1" s="80" t="s">
+      <c r="F1" s="82"/>
+      <c r="G1" s="79" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="80"/>
-      <c r="I1" s="80"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="79"/>
     </row>
     <row r="2" ht="15.15" spans="1:9">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="86">
+      <c r="A2" s="83"/>
+      <c r="B2" s="84"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="85">
         <v>45076</v>
       </c>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88" t="s">
+      <c r="F2" s="86"/>
+      <c r="G2" s="87" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="88" t="s">
+      <c r="H2" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="I2" s="88" t="s">
+      <c r="I2" s="87" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" ht="29" customHeight="1" spans="1:9">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="91"/>
-      <c r="G3" s="92" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="91" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="92"/>
+      <c r="I3" s="91"/>
     </row>
     <row r="4" ht="27" customHeight="1" spans="1:9">
-      <c r="A4" s="93"/>
-      <c r="B4" s="94" t="s">
+      <c r="A4" s="92"/>
+      <c r="B4" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="92" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="91" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="92" t="s">
+      <c r="H4" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="92"/>
+      <c r="I4" s="91"/>
     </row>
     <row r="5" ht="15.15" spans="1:9">
-      <c r="A5" s="97"/>
-      <c r="B5" s="89" t="s">
+      <c r="A5" s="96"/>
+      <c r="B5" s="88" t="s">
         <v>45</v>
       </c>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="98" t="s">
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="97" t="s">
         <v>46</v>
       </c>
-      <c r="H5" s="92" t="s">
+      <c r="H5" s="91" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="92"/>
+      <c r="I5" s="91"/>
     </row>
     <row r="6" ht="33" customHeight="1" spans="1:9">
-      <c r="A6" s="99" t="s">
+      <c r="A6" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="100"/>
-      <c r="C6" s="100"/>
-      <c r="D6" s="101" t="s">
+      <c r="B6" s="99"/>
+      <c r="C6" s="99"/>
+      <c r="D6" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="101">
         <v>1</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="98" t="s">
+      <c r="F6" s="90"/>
+      <c r="G6" s="97" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="92" t="s">
+      <c r="H6" s="91" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="92"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" ht="29.55" spans="1:9">
-      <c r="A7" s="99" t="s">
+      <c r="A7" s="98" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="100"/>
-      <c r="C7" s="100"/>
-      <c r="D7" s="101" t="s">
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="100" t="s">
         <v>53</v>
       </c>
-      <c r="E7" s="102">
+      <c r="E7" s="101">
         <v>1</v>
       </c>
-      <c r="F7" s="87"/>
-      <c r="G7" s="98" t="s">
+      <c r="F7" s="86"/>
+      <c r="G7" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="92" t="s">
+      <c r="H7" s="91" t="s">
         <v>55</v>
       </c>
-      <c r="I7" s="106"/>
+      <c r="I7" s="105"/>
     </row>
     <row r="8" ht="15.15" spans="1:9">
-      <c r="A8" s="97"/>
-      <c r="B8" s="97"/>
-      <c r="C8" s="103" t="s">
+      <c r="A8" s="96"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D8" s="97"/>
-      <c r="E8" s="104"/>
-      <c r="F8" s="87"/>
-      <c r="G8" s="105"/>
-      <c r="H8" s="106"/>
-      <c r="I8" s="106"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="103"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="104"/>
+      <c r="H8" s="105"/>
+      <c r="I8" s="105"/>
     </row>
     <row r="9" ht="45" customHeight="1" spans="1:9">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="98" t="s">
         <v>57</v>
       </c>
-      <c r="B9" s="100"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101" t="s">
+      <c r="B9" s="99"/>
+      <c r="C9" s="99"/>
+      <c r="D9" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="E9" s="102">
+      <c r="E9" s="101">
         <v>2</v>
       </c>
-      <c r="F9" s="87"/>
-      <c r="G9" s="106"/>
-      <c r="H9" s="106"/>
-      <c r="I9" s="106"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="105"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="105"/>
     </row>
     <row r="10" ht="29.55" spans="1:9">
-      <c r="A10" s="99" t="s">
+      <c r="A10" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="100"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101" t="s">
+      <c r="B10" s="99"/>
+      <c r="C10" s="99"/>
+      <c r="D10" s="100" t="s">
         <v>60</v>
       </c>
-      <c r="E10" s="102">
+      <c r="E10" s="101">
         <v>2</v>
       </c>
-      <c r="F10" s="87"/>
-      <c r="G10" s="106"/>
-      <c r="H10" s="106"/>
-      <c r="I10" s="106"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="105"/>
     </row>
     <row r="11" ht="15.15" spans="6:9">
-      <c r="F11" s="87"/>
-      <c r="G11" s="106"/>
-      <c r="H11" s="106"/>
-      <c r="I11" s="106"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="105"/>
     </row>
     <row r="12" ht="15.15" spans="6:9">
-      <c r="F12" s="87"/>
-      <c r="G12" s="106"/>
-      <c r="H12" s="106"/>
-      <c r="I12" s="106"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="105"/>
     </row>
     <row r="13" ht="15.15" spans="1:9">
-      <c r="A13" s="107" t="s">
+      <c r="A13" s="106" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="108"/>
-      <c r="C13" s="108"/>
-      <c r="D13" s="108"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="106"/>
-      <c r="H13" s="106"/>
-      <c r="I13" s="106"/>
+      <c r="B13" s="107"/>
+      <c r="C13" s="107"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="107"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="105"/>
     </row>
     <row r="14" ht="15.15" spans="1:9">
-      <c r="A14" s="94" t="s">
+      <c r="A14" s="93" t="s">
         <v>61</v>
       </c>
-      <c r="B14" s="95"/>
-      <c r="C14" s="95"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
+      <c r="B14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="105"/>
     </row>
     <row r="15" ht="15.15" spans="1:9">
-      <c r="A15" s="99" t="s">
+      <c r="A15" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="B15" s="100"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="92" t="s">
+      <c r="B15" s="99"/>
+      <c r="C15" s="99"/>
+      <c r="D15" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="E15" s="109"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="106"/>
-      <c r="H15" s="106"/>
-      <c r="I15" s="106"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="105"/>
     </row>
     <row r="16" ht="15.15" spans="1:9">
-      <c r="A16" s="110" t="s">
+      <c r="A16" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="106"/>
-      <c r="H16" s="106"/>
-      <c r="I16" s="106"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="86"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="105"/>
     </row>
     <row r="17" ht="58.35" spans="1:9">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="98" t="s">
         <v>64</v>
       </c>
-      <c r="B17" s="100"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101" t="s">
+      <c r="B17" s="99"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="100" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="87"/>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
+      <c r="F17" s="86"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
     </row>
     <row r="18" ht="43.95" spans="1:9">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="98" t="s">
         <v>66</v>
       </c>
-      <c r="B18" s="100"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101" t="s">
+      <c r="B18" s="99"/>
+      <c r="C18" s="99"/>
+      <c r="D18" s="100" t="s">
         <v>67</v>
       </c>
-      <c r="E18" s="102" t="s">
+      <c r="E18" s="101" t="s">
         <v>40</v>
       </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="106"/>
-      <c r="H18" s="106"/>
-      <c r="I18" s="106"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="105"/>
     </row>
     <row r="19" ht="15.15" spans="1:9">
-      <c r="A19" s="97"/>
-      <c r="B19" s="97"/>
-      <c r="C19" s="103" t="s">
+      <c r="A19" s="96"/>
+      <c r="B19" s="96"/>
+      <c r="C19" s="102" t="s">
         <v>56</v>
       </c>
-      <c r="D19" s="97"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="106"/>
-      <c r="H19" s="106"/>
-      <c r="I19" s="106"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="105"/>
     </row>
     <row r="20" ht="43.95" spans="1:9">
-      <c r="A20" s="99" t="s">
+      <c r="A20" s="98" t="s">
         <v>68</v>
       </c>
-      <c r="B20" s="100"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101" t="s">
+      <c r="B20" s="99"/>
+      <c r="C20" s="99"/>
+      <c r="D20" s="100" t="s">
         <v>69</v>
       </c>
-      <c r="E20" s="102">
+      <c r="E20" s="101">
         <v>2</v>
       </c>
-      <c r="F20" s="87"/>
-      <c r="G20" s="106"/>
-      <c r="H20" s="106"/>
-      <c r="I20" s="106"/>
+      <c r="F20" s="86"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="105"/>
     </row>
     <row r="21" ht="43.95" spans="1:9">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="98" t="s">
         <v>70</v>
       </c>
-      <c r="B21" s="100"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101" t="s">
+      <c r="B21" s="99"/>
+      <c r="C21" s="99"/>
+      <c r="D21" s="100" t="s">
         <v>71</v>
       </c>
-      <c r="E21" s="102">
+      <c r="E21" s="101">
         <v>2</v>
       </c>
-      <c r="F21" s="87"/>
-      <c r="G21" s="106"/>
-      <c r="H21" s="106"/>
-      <c r="I21" s="106"/>
+      <c r="F21" s="86"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="105"/>
     </row>
     <row r="22" ht="43.95" spans="1:9">
-      <c r="A22" s="100" t="s">
+      <c r="A22" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="B22" s="100"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101" t="s">
+      <c r="B22" s="99"/>
+      <c r="C22" s="99"/>
+      <c r="D22" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="E22" s="102">
+      <c r="E22" s="101">
         <v>2</v>
       </c>
-      <c r="F22" s="87"/>
-      <c r="G22" s="106"/>
-      <c r="H22" s="106"/>
-      <c r="I22" s="106"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="105"/>
     </row>
     <row r="23" ht="15.15" spans="1:9">
-      <c r="A23" s="93"/>
-      <c r="B23" s="97"/>
-      <c r="C23" s="103" t="s">
+      <c r="A23" s="92"/>
+      <c r="B23" s="96"/>
+      <c r="C23" s="102" t="s">
         <v>74</v>
       </c>
-      <c r="D23" s="97"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="106"/>
-      <c r="H23" s="106"/>
-      <c r="I23" s="106"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="86"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="105"/>
     </row>
     <row r="24" ht="43.95" spans="1:9">
-      <c r="A24" s="99" t="s">
+      <c r="A24" s="98" t="s">
         <v>75</v>
       </c>
-      <c r="B24" s="100"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101" t="s">
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="100" t="s">
         <v>76</v>
       </c>
-      <c r="E24" s="102" t="s">
+      <c r="E24" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="F24" s="87"/>
-      <c r="G24" s="106"/>
-      <c r="H24" s="106"/>
-      <c r="I24" s="106"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="105"/>
     </row>
     <row r="25" ht="43.95" spans="1:9">
-      <c r="A25" s="99" t="s">
+      <c r="A25" s="98" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="100"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101" t="s">
+      <c r="B25" s="99"/>
+      <c r="C25" s="99"/>
+      <c r="D25" s="100" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="102" t="s">
+      <c r="E25" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="F25" s="87"/>
-      <c r="G25" s="106"/>
-      <c r="H25" s="106"/>
-      <c r="I25" s="106"/>
+      <c r="F25" s="86"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="105"/>
     </row>
     <row r="26" ht="43.95" spans="1:9">
-      <c r="A26" s="85" t="s">
+      <c r="A26" s="84" t="s">
         <v>79</v>
       </c>
-      <c r="B26" s="100"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101" t="s">
+      <c r="B26" s="99"/>
+      <c r="C26" s="99"/>
+      <c r="D26" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="E26" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="87"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="105"/>
     </row>
     <row r="27" ht="15.15" spans="6:9">
-      <c r="F27" s="87"/>
-      <c r="G27" s="106"/>
-      <c r="H27" s="106"/>
-      <c r="I27" s="106"/>
+      <c r="F27" s="86"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="105"/>
     </row>
     <row r="28" ht="15.15" spans="6:9">
-      <c r="F28" s="87"/>
-      <c r="G28" s="106"/>
-      <c r="H28" s="106"/>
-      <c r="I28" s="106"/>
+      <c r="F28" s="86"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="105"/>
     </row>
     <row r="29" ht="16.5" customHeight="1" spans="1:9">
-      <c r="A29" s="106"/>
-      <c r="B29" s="111" t="s">
+      <c r="A29" s="105"/>
+      <c r="B29" s="110" t="s">
         <v>81</v>
       </c>
-      <c r="C29" s="112"/>
-      <c r="D29" s="112"/>
-      <c r="E29" s="112"/>
-      <c r="F29" s="87"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
+      <c r="C29" s="111"/>
+      <c r="D29" s="111"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="105"/>
     </row>
     <row r="30" ht="15.15" spans="1:9">
-      <c r="A30" s="106"/>
-      <c r="B30" s="113" t="s">
+      <c r="A30" s="105"/>
+      <c r="B30" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="87"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
+      <c r="C30" s="113"/>
+      <c r="D30" s="113"/>
+      <c r="E30" s="113"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="105"/>
     </row>
     <row r="31" ht="27.15" spans="1:9">
-      <c r="A31" s="97"/>
-      <c r="B31" s="97"/>
-      <c r="C31" s="97" t="s">
+      <c r="A31" s="96"/>
+      <c r="B31" s="96"/>
+      <c r="C31" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="D31" s="97"/>
-      <c r="E31" s="115"/>
-      <c r="F31" s="87"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
+      <c r="D31" s="96"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="86"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="105"/>
     </row>
     <row r="32" ht="29.55" spans="1:9">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="92" t="s">
         <v>84</v>
       </c>
-      <c r="B32" s="100"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="100" t="s">
+      <c r="B32" s="99"/>
+      <c r="C32" s="99"/>
+      <c r="D32" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="102" t="s">
+      <c r="E32" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F32" s="87"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
+      <c r="F32" s="86"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="105"/>
     </row>
     <row r="33" ht="15.15" spans="1:9">
-      <c r="A33" s="97"/>
-      <c r="B33" s="97"/>
-      <c r="C33" s="97"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
+      <c r="A33" s="96"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
+      <c r="E33" s="115"/>
+      <c r="F33" s="105"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="105"/>
     </row>
     <row r="34" ht="29.55" spans="1:9">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="92" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="100"/>
-      <c r="C34" s="100"/>
-      <c r="D34" s="100" t="s">
+      <c r="B34" s="99"/>
+      <c r="C34" s="99"/>
+      <c r="D34" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="E34" s="102" t="s">
+      <c r="E34" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
+      <c r="F34" s="105"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="105"/>
+      <c r="I34" s="105"/>
     </row>
     <row r="35" ht="29.55" spans="1:9">
-      <c r="A35" s="93" t="s">
+      <c r="A35" s="92" t="s">
         <v>88</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100" t="s">
+      <c r="B35" s="99"/>
+      <c r="C35" s="99"/>
+      <c r="D35" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="E35" s="102" t="s">
+      <c r="E35" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
+      <c r="F35" s="105"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="105"/>
+      <c r="I35" s="105"/>
     </row>
     <row r="36" ht="29.55" spans="1:9">
-      <c r="A36" s="117" t="s">
+      <c r="A36" s="116" t="s">
         <v>90</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="118" t="s">
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117" t="s">
         <v>91</v>
       </c>
-      <c r="E36" s="102" t="s">
+      <c r="E36" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
+      <c r="F36" s="105"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="105"/>
+      <c r="I36" s="105"/>
     </row>
     <row r="37" ht="29.55" spans="1:7">
-      <c r="A37" s="119" t="s">
+      <c r="A37" s="118" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="120"/>
-      <c r="C37" s="121"/>
-      <c r="D37" s="122" t="s">
+      <c r="B37" s="119"/>
+      <c r="C37" s="120"/>
+      <c r="D37" s="121" t="s">
         <v>93</v>
       </c>
-      <c r="E37" s="102" t="s">
+      <c r="E37" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F37" s="123"/>
-      <c r="G37" s="106"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="105"/>
     </row>
     <row r="38" ht="29.55" spans="1:7">
-      <c r="A38" s="124" t="s">
+      <c r="A38" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B38" s="125"/>
-      <c r="C38" s="126"/>
-      <c r="D38" s="127" t="s">
+      <c r="B38" s="124"/>
+      <c r="C38" s="125"/>
+      <c r="D38" s="126" t="s">
         <v>95</v>
       </c>
-      <c r="E38" s="102" t="s">
+      <c r="E38" s="101" t="s">
         <v>50</v>
       </c>
-      <c r="F38" s="123"/>
-      <c r="G38" s="106"/>
+      <c r="F38" s="122"/>
+      <c r="G38" s="105"/>
     </row>
     <row r="39" ht="15.15" spans="6:7">
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
+      <c r="F39" s="105"/>
+      <c r="G39" s="105"/>
     </row>
     <row r="40" ht="15.15" spans="6:7">
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
+      <c r="F40" s="105"/>
+      <c r="G40" s="105"/>
     </row>
     <row r="41" ht="16" customHeight="1" spans="1:7">
-      <c r="A41" s="106"/>
-      <c r="B41" s="111" t="s">
+      <c r="A41" s="105"/>
+      <c r="B41" s="110" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="112"/>
-      <c r="D41" s="112"/>
-      <c r="E41" s="112"/>
-      <c r="F41" s="106"/>
-      <c r="G41" s="106"/>
+      <c r="C41" s="111"/>
+      <c r="D41" s="111"/>
+      <c r="E41" s="111"/>
+      <c r="F41" s="105"/>
+      <c r="G41" s="105"/>
     </row>
     <row r="42" ht="15.15" spans="1:7">
-      <c r="A42" s="106"/>
-      <c r="B42" s="113" t="s">
+      <c r="A42" s="105"/>
+      <c r="B42" s="112" t="s">
         <v>82</v>
       </c>
-      <c r="C42" s="114"/>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="106"/>
-      <c r="G42" s="106"/>
+      <c r="C42" s="113"/>
+      <c r="D42" s="113"/>
+      <c r="E42" s="113"/>
+      <c r="F42" s="105"/>
+      <c r="G42" s="105"/>
     </row>
     <row r="43" ht="15.15" spans="1:7">
-      <c r="A43" s="97"/>
-      <c r="B43" s="97"/>
-      <c r="C43" s="115" t="s">
+      <c r="A43" s="96"/>
+      <c r="B43" s="96"/>
+      <c r="C43" s="114" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="128"/>
-      <c r="E43" s="115"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="106"/>
+      <c r="D43" s="127"/>
+      <c r="E43" s="114"/>
+      <c r="F43" s="105"/>
+      <c r="G43" s="105"/>
     </row>
     <row r="44" ht="29.55" spans="1:7">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="92" t="s">
         <v>98</v>
       </c>
-      <c r="B44" s="100"/>
-      <c r="C44" s="100"/>
-      <c r="D44" s="100" t="s">
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
+      <c r="D44" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="E44" s="102" t="s">
+      <c r="E44" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="F44" s="106"/>
-      <c r="G44" s="106"/>
+      <c r="F44" s="105"/>
+      <c r="G44" s="105"/>
     </row>
     <row r="45" ht="15.15" spans="1:9">
-      <c r="A45" s="97"/>
-      <c r="B45" s="97"/>
-      <c r="C45" s="97" t="s">
+      <c r="A45" s="96"/>
+      <c r="B45" s="96"/>
+      <c r="C45" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="D45" s="97"/>
-      <c r="E45" s="116"/>
-      <c r="F45" s="106"/>
-      <c r="G45" s="106"/>
-      <c r="H45" s="106"/>
-      <c r="I45" s="106"/>
+      <c r="D45" s="96"/>
+      <c r="E45" s="115"/>
+      <c r="F45" s="105"/>
+      <c r="G45" s="105"/>
+      <c r="H45" s="105"/>
+      <c r="I45" s="105"/>
     </row>
     <row r="46" ht="29.55" spans="1:9">
-      <c r="A46" s="93" t="s">
+      <c r="A46" s="92" t="s">
         <v>101</v>
       </c>
-      <c r="B46" s="100"/>
-      <c r="C46" s="100"/>
-      <c r="D46" s="100" t="s">
+      <c r="B46" s="99"/>
+      <c r="C46" s="99"/>
+      <c r="D46" s="99" t="s">
         <v>102</v>
       </c>
-      <c r="E46" s="102" t="s">
+      <c r="E46" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="F46" s="106"/>
-      <c r="G46" s="106"/>
-      <c r="H46" s="106"/>
-      <c r="I46" s="106"/>
+      <c r="F46" s="105"/>
+      <c r="G46" s="105"/>
+      <c r="H46" s="105"/>
+      <c r="I46" s="105"/>
     </row>
     <row r="47" ht="29.55" spans="1:9">
-      <c r="A47" s="93" t="s">
+      <c r="A47" s="92" t="s">
         <v>103</v>
       </c>
-      <c r="B47" s="100"/>
-      <c r="C47" s="100"/>
-      <c r="D47" s="100" t="s">
+      <c r="B47" s="99"/>
+      <c r="C47" s="99"/>
+      <c r="D47" s="99" t="s">
         <v>104</v>
       </c>
-      <c r="E47" s="102" t="s">
+      <c r="E47" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
+      <c r="F47" s="105"/>
+      <c r="G47" s="105"/>
+      <c r="H47" s="105"/>
+      <c r="I47" s="105"/>
     </row>
     <row r="48" ht="29.55" spans="1:9">
-      <c r="A48" s="99" t="s">
+      <c r="A48" s="98" t="s">
         <v>105</v>
       </c>
-      <c r="B48" s="100"/>
-      <c r="C48" s="100"/>
-      <c r="D48" s="100" t="s">
+      <c r="B48" s="99"/>
+      <c r="C48" s="99"/>
+      <c r="D48" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="E48" s="102" t="s">
+      <c r="E48" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="F48" s="106"/>
-      <c r="G48" s="106"/>
-      <c r="H48" s="106"/>
-      <c r="I48" s="106"/>
+      <c r="F48" s="105"/>
+      <c r="G48" s="105"/>
+      <c r="H48" s="105"/>
+      <c r="I48" s="105"/>
     </row>
     <row r="49" ht="15.15" spans="6:9">
-      <c r="F49" s="106"/>
-      <c r="G49" s="106"/>
-      <c r="H49" s="106"/>
-      <c r="I49" s="106"/>
+      <c r="F49" s="105"/>
+      <c r="G49" s="105"/>
+      <c r="H49" s="105"/>
+      <c r="I49" s="105"/>
     </row>
     <row r="50" ht="15.15" spans="6:9">
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
+      <c r="F50" s="105"/>
+      <c r="G50" s="105"/>
+      <c r="H50" s="105"/>
+      <c r="I50" s="105"/>
     </row>
     <row r="51" ht="15.15" spans="1:9">
-      <c r="A51" s="106"/>
-      <c r="B51" s="111" t="s">
+      <c r="A51" s="105"/>
+      <c r="B51" s="110" t="s">
         <v>29</v>
       </c>
-      <c r="C51" s="112"/>
-      <c r="D51" s="112"/>
-      <c r="E51" s="112"/>
-      <c r="F51" s="106"/>
-      <c r="G51" s="106"/>
-      <c r="H51" s="106"/>
-      <c r="I51" s="106"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="105"/>
+      <c r="G51" s="105"/>
+      <c r="H51" s="105"/>
+      <c r="I51" s="105"/>
     </row>
     <row r="52" ht="15.15" spans="1:9">
-      <c r="A52" s="106"/>
-      <c r="B52" s="113" t="s">
+      <c r="A52" s="105"/>
+      <c r="B52" s="112" t="s">
         <v>107</v>
       </c>
-      <c r="C52" s="114"/>
-      <c r="D52" s="114"/>
-      <c r="E52" s="114"/>
-      <c r="F52" s="106"/>
-      <c r="G52" s="106"/>
-      <c r="H52" s="106"/>
-      <c r="I52" s="106"/>
+      <c r="C52" s="113"/>
+      <c r="D52" s="113"/>
+      <c r="E52" s="113"/>
+      <c r="F52" s="105"/>
+      <c r="G52" s="105"/>
+      <c r="H52" s="105"/>
+      <c r="I52" s="105"/>
     </row>
     <row r="53" ht="15.15" spans="1:9">
-      <c r="A53" s="97"/>
-      <c r="B53" s="97"/>
-      <c r="C53" s="97"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="115"/>
-      <c r="F53" s="106"/>
-      <c r="G53" s="106"/>
-      <c r="H53" s="106"/>
-      <c r="I53" s="106"/>
+      <c r="A53" s="96"/>
+      <c r="B53" s="96"/>
+      <c r="C53" s="96"/>
+      <c r="D53" s="96"/>
+      <c r="E53" s="114"/>
+      <c r="F53" s="105"/>
+      <c r="G53" s="105"/>
+      <c r="H53" s="105"/>
+      <c r="I53" s="105"/>
     </row>
     <row r="54" ht="29.55" spans="1:9">
-      <c r="A54" s="93" t="s">
+      <c r="A54" s="92" t="s">
         <v>108</v>
       </c>
-      <c r="B54" s="100"/>
-      <c r="C54" s="100"/>
-      <c r="D54" s="100" t="s">
+      <c r="B54" s="99"/>
+      <c r="C54" s="99"/>
+      <c r="D54" s="99" t="s">
         <v>109</v>
       </c>
-      <c r="E54" s="102" t="s">
+      <c r="E54" s="101" t="s">
         <v>110</v>
       </c>
-      <c r="F54" s="106"/>
-      <c r="G54" s="106"/>
-      <c r="H54" s="106"/>
-      <c r="I54" s="106"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
     </row>
     <row r="55" ht="15.15" spans="1:9">
-      <c r="A55" s="97"/>
-      <c r="B55" s="97"/>
-      <c r="C55" s="97"/>
-      <c r="D55" s="97"/>
-      <c r="E55" s="116"/>
-      <c r="F55" s="106"/>
-      <c r="G55" s="106"/>
-      <c r="H55" s="106"/>
-      <c r="I55" s="106"/>
+      <c r="A55" s="96"/>
+      <c r="B55" s="96"/>
+      <c r="C55" s="96"/>
+      <c r="D55" s="96"/>
+      <c r="E55" s="115"/>
+      <c r="F55" s="105"/>
+      <c r="G55" s="105"/>
+      <c r="H55" s="105"/>
+      <c r="I55" s="105"/>
     </row>
     <row r="56" ht="15.15" spans="1:9">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="92" t="s">
         <v>111</v>
       </c>
-      <c r="B56" s="100"/>
-      <c r="C56" s="100"/>
-      <c r="D56" s="100"/>
-      <c r="E56" s="116"/>
-      <c r="F56" s="106"/>
-      <c r="G56" s="106"/>
-      <c r="H56" s="106"/>
-      <c r="I56" s="106"/>
+      <c r="B56" s="99"/>
+      <c r="C56" s="99"/>
+      <c r="D56" s="99"/>
+      <c r="E56" s="115"/>
+      <c r="F56" s="105"/>
+      <c r="G56" s="105"/>
+      <c r="H56" s="105"/>
+      <c r="I56" s="105"/>
     </row>
     <row r="57" ht="15.15" spans="1:9">
-      <c r="A57" s="93" t="s">
+      <c r="A57" s="92" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="100"/>
-      <c r="C57" s="100"/>
-      <c r="D57" s="100"/>
-      <c r="E57" s="116"/>
-      <c r="F57" s="106"/>
-      <c r="G57" s="106"/>
-      <c r="H57" s="106"/>
-      <c r="I57" s="106"/>
+      <c r="B57" s="99"/>
+      <c r="C57" s="99"/>
+      <c r="D57" s="99"/>
+      <c r="E57" s="115"/>
+      <c r="F57" s="105"/>
+      <c r="G57" s="105"/>
+      <c r="H57" s="105"/>
+      <c r="I57" s="105"/>
     </row>
     <row r="58" ht="15.15" spans="1:9">
-      <c r="A58" s="99" t="s">
+      <c r="A58" s="98" t="s">
         <v>113</v>
       </c>
-      <c r="B58" s="100"/>
-      <c r="C58" s="100"/>
-      <c r="D58" s="100"/>
-      <c r="E58" s="116"/>
-      <c r="F58" s="106"/>
-      <c r="G58" s="106"/>
-      <c r="H58" s="106"/>
-      <c r="I58" s="106"/>
+      <c r="B58" s="99"/>
+      <c r="C58" s="99"/>
+      <c r="D58" s="99"/>
+      <c r="E58" s="115"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="105"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
     </row>
     <row r="59" ht="15.15" spans="1:9">
-      <c r="A59" s="106"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="106"/>
-      <c r="E59" s="106"/>
-      <c r="F59" s="106"/>
-      <c r="G59" s="106"/>
-      <c r="H59" s="106"/>
-      <c r="I59" s="106"/>
+      <c r="A59" s="105"/>
+      <c r="B59" s="105"/>
+      <c r="C59" s="105"/>
+      <c r="D59" s="105"/>
+      <c r="E59" s="105"/>
+      <c r="F59" s="105"/>
+      <c r="G59" s="105"/>
+      <c r="H59" s="105"/>
+      <c r="I59" s="105"/>
     </row>
     <row r="60" ht="15.15" spans="1:9">
-      <c r="A60" s="106"/>
-      <c r="B60" s="106"/>
-      <c r="C60" s="106"/>
-      <c r="D60" s="106"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="106"/>
-      <c r="G60" s="106"/>
-      <c r="H60" s="106"/>
-      <c r="I60" s="106"/>
+      <c r="A60" s="105"/>
+      <c r="B60" s="105"/>
+      <c r="C60" s="105"/>
+      <c r="D60" s="105"/>
+      <c r="E60" s="105"/>
+      <c r="F60" s="105"/>
+      <c r="G60" s="105"/>
+      <c r="H60" s="105"/>
+      <c r="I60" s="105"/>
     </row>
     <row r="61" ht="15.15" spans="1:9">
-      <c r="A61" s="106"/>
-      <c r="B61" s="106"/>
-      <c r="C61" s="106"/>
-      <c r="D61" s="106"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="106"/>
-      <c r="G61" s="106"/>
-      <c r="H61" s="106"/>
-      <c r="I61" s="106"/>
+      <c r="A61" s="105"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="105"/>
+      <c r="E61" s="105"/>
+      <c r="F61" s="105"/>
+      <c r="G61" s="105"/>
+      <c r="H61" s="105"/>
+      <c r="I61" s="105"/>
     </row>
     <row r="62" ht="15.15" spans="1:9">
-      <c r="A62" s="106"/>
-      <c r="B62" s="106"/>
-      <c r="C62" s="106"/>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
+      <c r="A62" s="105"/>
+      <c r="B62" s="105"/>
+      <c r="C62" s="105"/>
+      <c r="D62" s="105"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="105"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
     </row>
     <row r="63" ht="15.15" spans="1:9">
-      <c r="A63" s="106"/>
-      <c r="B63" s="106"/>
-      <c r="C63" s="106"/>
-      <c r="D63" s="106"/>
-      <c r="E63" s="106"/>
-      <c r="F63" s="106"/>
-      <c r="G63" s="106"/>
-      <c r="H63" s="106"/>
-      <c r="I63" s="106"/>
+      <c r="A63" s="105"/>
+      <c r="B63" s="105"/>
+      <c r="C63" s="105"/>
+      <c r="D63" s="105"/>
+      <c r="E63" s="105"/>
+      <c r="F63" s="105"/>
+      <c r="G63" s="105"/>
+      <c r="H63" s="105"/>
+      <c r="I63" s="105"/>
     </row>
     <row r="64" ht="15.15" spans="1:9">
-      <c r="A64" s="106"/>
-      <c r="B64" s="106"/>
-      <c r="C64" s="106"/>
-      <c r="D64" s="106"/>
-      <c r="E64" s="106"/>
-      <c r="F64" s="106"/>
-      <c r="G64" s="106"/>
-      <c r="H64" s="106"/>
-      <c r="I64" s="106"/>
+      <c r="A64" s="105"/>
+      <c r="B64" s="105"/>
+      <c r="C64" s="105"/>
+      <c r="D64" s="105"/>
+      <c r="E64" s="105"/>
+      <c r="F64" s="105"/>
+      <c r="G64" s="105"/>
+      <c r="H64" s="105"/>
+      <c r="I64" s="105"/>
     </row>
     <row r="65" ht="15.15" spans="1:9">
-      <c r="A65" s="106"/>
-      <c r="B65" s="106"/>
-      <c r="C65" s="106"/>
-      <c r="D65" s="106"/>
-      <c r="E65" s="106"/>
-      <c r="F65" s="106"/>
-      <c r="G65" s="106"/>
-      <c r="H65" s="106"/>
-      <c r="I65" s="106"/>
+      <c r="A65" s="105"/>
+      <c r="B65" s="105"/>
+      <c r="C65" s="105"/>
+      <c r="D65" s="105"/>
+      <c r="E65" s="105"/>
+      <c r="F65" s="105"/>
+      <c r="G65" s="105"/>
+      <c r="H65" s="105"/>
+      <c r="I65" s="105"/>
     </row>
     <row r="66" ht="15.15" spans="1:9">
-      <c r="A66" s="106"/>
-      <c r="B66" s="106"/>
-      <c r="C66" s="106"/>
-      <c r="D66" s="106"/>
-      <c r="E66" s="106"/>
-      <c r="F66" s="106"/>
-      <c r="G66" s="106"/>
-      <c r="H66" s="106"/>
-      <c r="I66" s="106"/>
+      <c r="A66" s="105"/>
+      <c r="B66" s="105"/>
+      <c r="C66" s="105"/>
+      <c r="D66" s="105"/>
+      <c r="E66" s="105"/>
+      <c r="F66" s="105"/>
+      <c r="G66" s="105"/>
+      <c r="H66" s="105"/>
+      <c r="I66" s="105"/>
     </row>
     <row r="67" ht="15.15" spans="1:9">
-      <c r="A67" s="106"/>
-      <c r="B67" s="106"/>
-      <c r="C67" s="106"/>
-      <c r="D67" s="106"/>
-      <c r="E67" s="106"/>
-      <c r="F67" s="106"/>
-      <c r="G67" s="106"/>
-      <c r="H67" s="106"/>
-      <c r="I67" s="106"/>
+      <c r="A67" s="105"/>
+      <c r="B67" s="105"/>
+      <c r="C67" s="105"/>
+      <c r="D67" s="105"/>
+      <c r="E67" s="105"/>
+      <c r="F67" s="105"/>
+      <c r="G67" s="105"/>
+      <c r="H67" s="105"/>
+      <c r="I67" s="105"/>
     </row>
     <row r="68" ht="15.15" spans="1:9">
-      <c r="A68" s="106"/>
-      <c r="B68" s="106"/>
-      <c r="C68" s="106"/>
-      <c r="D68" s="106"/>
-      <c r="E68" s="106"/>
-      <c r="F68" s="106"/>
-      <c r="G68" s="106"/>
-      <c r="H68" s="106"/>
-      <c r="I68" s="106"/>
+      <c r="A68" s="105"/>
+      <c r="B68" s="105"/>
+      <c r="C68" s="105"/>
+      <c r="D68" s="105"/>
+      <c r="E68" s="105"/>
+      <c r="F68" s="105"/>
+      <c r="G68" s="105"/>
+      <c r="H68" s="105"/>
+      <c r="I68" s="105"/>
     </row>
     <row r="69" ht="15.15" spans="1:9">
-      <c r="A69" s="106"/>
-      <c r="B69" s="106"/>
-      <c r="C69" s="106"/>
-      <c r="D69" s="106"/>
-      <c r="E69" s="106"/>
-      <c r="F69" s="106"/>
-      <c r="G69" s="106"/>
-      <c r="H69" s="106"/>
-      <c r="I69" s="106"/>
+      <c r="A69" s="105"/>
+      <c r="B69" s="105"/>
+      <c r="C69" s="105"/>
+      <c r="D69" s="105"/>
+      <c r="E69" s="105"/>
+      <c r="F69" s="105"/>
+      <c r="G69" s="105"/>
+      <c r="H69" s="105"/>
+      <c r="I69" s="105"/>
     </row>
     <row r="70" ht="15.15" spans="1:9">
-      <c r="A70" s="106"/>
-      <c r="B70" s="106"/>
-      <c r="C70" s="106"/>
-      <c r="D70" s="106"/>
-      <c r="E70" s="106"/>
-      <c r="F70" s="106"/>
-      <c r="G70" s="106"/>
-      <c r="H70" s="106"/>
-      <c r="I70" s="106"/>
+      <c r="A70" s="105"/>
+      <c r="B70" s="105"/>
+      <c r="C70" s="105"/>
+      <c r="D70" s="105"/>
+      <c r="E70" s="105"/>
+      <c r="F70" s="105"/>
+      <c r="G70" s="105"/>
+      <c r="H70" s="105"/>
+      <c r="I70" s="105"/>
     </row>
     <row r="71" ht="15.15" spans="1:9">
-      <c r="A71" s="106"/>
-      <c r="B71" s="106"/>
-      <c r="C71" s="106"/>
-      <c r="D71" s="106"/>
-      <c r="E71" s="106"/>
-      <c r="F71" s="106"/>
-      <c r="G71" s="106"/>
-      <c r="H71" s="106"/>
-      <c r="I71" s="106"/>
+      <c r="A71" s="105"/>
+      <c r="B71" s="105"/>
+      <c r="C71" s="105"/>
+      <c r="D71" s="105"/>
+      <c r="E71" s="105"/>
+      <c r="F71" s="105"/>
+      <c r="G71" s="105"/>
+      <c r="H71" s="105"/>
+      <c r="I71" s="105"/>
     </row>
     <row r="72" ht="15.15" spans="1:9">
-      <c r="A72" s="106"/>
-      <c r="B72" s="106"/>
-      <c r="C72" s="106"/>
-      <c r="D72" s="106"/>
-      <c r="E72" s="106"/>
-      <c r="F72" s="106"/>
-      <c r="G72" s="106"/>
-      <c r="H72" s="106"/>
-      <c r="I72" s="106"/>
+      <c r="A72" s="105"/>
+      <c r="B72" s="105"/>
+      <c r="C72" s="105"/>
+      <c r="D72" s="105"/>
+      <c r="E72" s="105"/>
+      <c r="F72" s="105"/>
+      <c r="G72" s="105"/>
+      <c r="H72" s="105"/>
+      <c r="I72" s="105"/>
     </row>
     <row r="73" ht="15.15" spans="1:9">
-      <c r="A73" s="106"/>
-      <c r="B73" s="106"/>
-      <c r="C73" s="106"/>
-      <c r="D73" s="106"/>
-      <c r="E73" s="106"/>
-      <c r="F73" s="106"/>
-      <c r="G73" s="106"/>
-      <c r="H73" s="106"/>
-      <c r="I73" s="106"/>
+      <c r="A73" s="105"/>
+      <c r="B73" s="105"/>
+      <c r="C73" s="105"/>
+      <c r="D73" s="105"/>
+      <c r="E73" s="105"/>
+      <c r="F73" s="105"/>
+      <c r="G73" s="105"/>
+      <c r="H73" s="105"/>
+      <c r="I73" s="105"/>
     </row>
     <row r="74" ht="15.15" spans="1:9">
-      <c r="A74" s="106"/>
-      <c r="B74" s="106"/>
-      <c r="C74" s="106"/>
-      <c r="D74" s="106"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="106"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
+      <c r="A74" s="105"/>
+      <c r="B74" s="105"/>
+      <c r="C74" s="105"/>
+      <c r="D74" s="105"/>
+      <c r="E74" s="105"/>
+      <c r="F74" s="105"/>
+      <c r="G74" s="105"/>
+      <c r="H74" s="105"/>
+      <c r="I74" s="105"/>
     </row>
     <row r="75" ht="15.15" spans="1:9">
-      <c r="A75" s="106"/>
-      <c r="B75" s="106"/>
-      <c r="C75" s="106"/>
-      <c r="D75" s="106"/>
-      <c r="E75" s="106"/>
-      <c r="F75" s="106"/>
-      <c r="G75" s="106"/>
-      <c r="H75" s="106"/>
-      <c r="I75" s="106"/>
+      <c r="A75" s="105"/>
+      <c r="B75" s="105"/>
+      <c r="C75" s="105"/>
+      <c r="D75" s="105"/>
+      <c r="E75" s="105"/>
+      <c r="F75" s="105"/>
+      <c r="G75" s="105"/>
+      <c r="H75" s="105"/>
+      <c r="I75" s="105"/>
     </row>
     <row r="76" ht="15.15" spans="1:9">
-      <c r="A76" s="106"/>
-      <c r="B76" s="106"/>
-      <c r="C76" s="106"/>
-      <c r="D76" s="106"/>
-      <c r="E76" s="106"/>
-      <c r="F76" s="106"/>
-      <c r="G76" s="106"/>
-      <c r="H76" s="106"/>
-      <c r="I76" s="106"/>
+      <c r="A76" s="105"/>
+      <c r="B76" s="105"/>
+      <c r="C76" s="105"/>
+      <c r="D76" s="105"/>
+      <c r="E76" s="105"/>
+      <c r="F76" s="105"/>
+      <c r="G76" s="105"/>
+      <c r="H76" s="105"/>
+      <c r="I76" s="105"/>
     </row>
     <row r="77" ht="15.15" spans="1:9">
-      <c r="A77" s="106"/>
-      <c r="B77" s="106"/>
-      <c r="C77" s="106"/>
-      <c r="D77" s="106"/>
-      <c r="E77" s="106"/>
-      <c r="F77" s="106"/>
-      <c r="G77" s="106"/>
-      <c r="H77" s="106"/>
-      <c r="I77" s="106"/>
+      <c r="A77" s="105"/>
+      <c r="B77" s="105"/>
+      <c r="C77" s="105"/>
+      <c r="D77" s="105"/>
+      <c r="E77" s="105"/>
+      <c r="F77" s="105"/>
+      <c r="G77" s="105"/>
+      <c r="H77" s="105"/>
+      <c r="I77" s="105"/>
     </row>
     <row r="78" ht="15.15" spans="1:9">
-      <c r="A78" s="106"/>
-      <c r="B78" s="106"/>
-      <c r="C78" s="106"/>
-      <c r="D78" s="106"/>
-      <c r="E78" s="106"/>
-      <c r="F78" s="106"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="106"/>
-      <c r="I78" s="106"/>
+      <c r="A78" s="105"/>
+      <c r="B78" s="105"/>
+      <c r="C78" s="105"/>
+      <c r="D78" s="105"/>
+      <c r="E78" s="105"/>
+      <c r="F78" s="105"/>
+      <c r="G78" s="105"/>
+      <c r="H78" s="105"/>
+      <c r="I78" s="105"/>
     </row>
     <row r="79" ht="15.15" spans="1:9">
-      <c r="A79" s="106"/>
-      <c r="B79" s="106"/>
-      <c r="C79" s="106"/>
-      <c r="D79" s="106"/>
-      <c r="E79" s="106"/>
-      <c r="F79" s="106"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="106"/>
-      <c r="I79" s="106"/>
+      <c r="A79" s="105"/>
+      <c r="B79" s="105"/>
+      <c r="C79" s="105"/>
+      <c r="D79" s="105"/>
+      <c r="E79" s="105"/>
+      <c r="F79" s="105"/>
+      <c r="G79" s="105"/>
+      <c r="H79" s="105"/>
+      <c r="I79" s="105"/>
     </row>
     <row r="80" ht="15.15" spans="1:9">
-      <c r="A80" s="106"/>
-      <c r="B80" s="106"/>
-      <c r="C80" s="106"/>
-      <c r="D80" s="106"/>
-      <c r="E80" s="106"/>
-      <c r="F80" s="106"/>
-      <c r="G80" s="106"/>
-      <c r="H80" s="106"/>
-      <c r="I80" s="106"/>
+      <c r="A80" s="105"/>
+      <c r="B80" s="105"/>
+      <c r="C80" s="105"/>
+      <c r="D80" s="105"/>
+      <c r="E80" s="105"/>
+      <c r="F80" s="105"/>
+      <c r="G80" s="105"/>
+      <c r="H80" s="105"/>
+      <c r="I80" s="105"/>
     </row>
     <row r="81" ht="15.15" spans="1:9">
-      <c r="A81" s="106"/>
-      <c r="B81" s="106"/>
-      <c r="C81" s="106"/>
-      <c r="D81" s="106"/>
-      <c r="E81" s="106"/>
-      <c r="F81" s="106"/>
-      <c r="G81" s="106"/>
-      <c r="H81" s="106"/>
-      <c r="I81" s="106"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="105"/>
+      <c r="C81" s="105"/>
+      <c r="D81" s="105"/>
+      <c r="E81" s="105"/>
+      <c r="F81" s="105"/>
+      <c r="G81" s="105"/>
+      <c r="H81" s="105"/>
+      <c r="I81" s="105"/>
     </row>
     <row r="82" ht="15.15" spans="1:9">
-      <c r="A82" s="106"/>
-      <c r="B82" s="106"/>
-      <c r="C82" s="106"/>
-      <c r="D82" s="106"/>
-      <c r="E82" s="106"/>
-      <c r="F82" s="106"/>
-      <c r="G82" s="106"/>
-      <c r="H82" s="106"/>
-      <c r="I82" s="106"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="105"/>
+      <c r="C82" s="105"/>
+      <c r="D82" s="105"/>
+      <c r="E82" s="105"/>
+      <c r="F82" s="105"/>
+      <c r="G82" s="105"/>
+      <c r="H82" s="105"/>
+      <c r="I82" s="105"/>
     </row>
     <row r="83" ht="15.15" spans="1:9">
-      <c r="A83" s="106"/>
-      <c r="B83" s="106"/>
-      <c r="C83" s="106"/>
-      <c r="D83" s="106"/>
-      <c r="E83" s="106"/>
-      <c r="F83" s="106"/>
-      <c r="G83" s="106"/>
-      <c r="H83" s="106"/>
-      <c r="I83" s="106"/>
+      <c r="A83" s="105"/>
+      <c r="B83" s="105"/>
+      <c r="C83" s="105"/>
+      <c r="D83" s="105"/>
+      <c r="E83" s="105"/>
+      <c r="F83" s="105"/>
+      <c r="G83" s="105"/>
+      <c r="H83" s="105"/>
+      <c r="I83" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="17">
@@ -4953,8 +5216,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -4998,12 +5261,12 @@
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" ht="15.15" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="55"/>
       <c r="B3" s="62"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="55" t="s">
         <v>120</v>
       </c>
@@ -5012,7 +5275,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" ht="29.55" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="53"/>
       <c r="B4" s="58" t="s">
         <v>121</v>
@@ -5025,12 +5288,12 @@
       <c r="F4" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="64">
-        <v>45098</v>
+      <c r="G4" s="63">
+        <v>45102</v>
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" ht="15.15" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="55"/>
       <c r="B5" s="62"/>
       <c r="C5" s="55"/>
@@ -5078,7 +5341,7 @@
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" ht="15.15" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -5088,7 +5351,7 @@
       <c r="G9" s="55"/>
       <c r="H9" s="55"/>
     </row>
-    <row r="10" ht="43.95" spans="1:8">
+    <row r="10" ht="15.15" spans="1:8">
       <c r="A10" s="62"/>
       <c r="B10" s="62" t="s">
         <v>128</v>
@@ -5096,137 +5359,137 @@
       <c r="C10" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="65">
-        <v>4</v>
+      <c r="D10" s="64">
+        <v>3</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <v>0</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="65">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:8">
+      <c r="A11" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="58.35" spans="1:8">
-      <c r="A11" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" ht="29.55" spans="1:8">
-      <c r="A12" s="70">
+      <c r="B12" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" ht="43.95" spans="1:8">
+      <c r="A13" s="69">
+        <v>2</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>142</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>143</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
+        <v>144</v>
+      </c>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" ht="43.95" spans="1:8">
+      <c r="A14" s="69">
+        <v>3</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>146</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71" t="s">
+        <v>146</v>
+      </c>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:8">
+      <c r="A15" s="69">
+        <v>4</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>148</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="70"/>
+      <c r="G15" s="73" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" s="74">
         <v>1</v>
       </c>
-      <c r="B12" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="71" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72" t="s">
-        <v>140</v>
-      </c>
-      <c r="H12" s="71"/>
-    </row>
-    <row r="13" ht="72.75" spans="1:8">
-      <c r="A13" s="70">
-        <v>2</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="71" t="s">
-        <v>143</v>
-      </c>
-      <c r="D13" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="71"/>
-    </row>
-    <row r="14" ht="43.95" spans="1:8">
-      <c r="A14" s="70">
-        <v>3</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>146</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72" t="s">
-        <v>146</v>
-      </c>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" ht="43" customHeight="1" spans="1:8">
-      <c r="A15" s="70">
-        <v>4</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>148</v>
-      </c>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="F15" s="71"/>
-      <c r="G15" s="74" t="s">
-        <v>150</v>
-      </c>
-      <c r="H15" s="75">
-        <v>1</v>
-      </c>
     </row>
     <row r="16" ht="15.15" spans="1:8">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="77"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5240,7 +5503,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -5284,12 +5547,12 @@
       </c>
       <c r="H2" s="55"/>
     </row>
-    <row r="3" ht="15.15" spans="1:8">
+    <row r="3" spans="1:8">
       <c r="A3" s="55"/>
       <c r="B3" s="62"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="55" t="s">
         <v>120</v>
       </c>
@@ -5298,7 +5561,7 @@
       </c>
       <c r="H3" s="55"/>
     </row>
-    <row r="4" ht="15.15" spans="1:8">
+    <row r="4" spans="1:8">
       <c r="A4" s="53"/>
       <c r="B4" s="58" t="s">
         <v>121</v>
@@ -5311,12 +5574,12 @@
       <c r="F4" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="64">
-        <v>45098</v>
+      <c r="G4" s="63">
+        <v>45102</v>
       </c>
       <c r="H4" s="55"/>
     </row>
-    <row r="5" ht="15.15" spans="1:8">
+    <row r="5" spans="1:8">
       <c r="A5" s="55"/>
       <c r="B5" s="62"/>
       <c r="C5" s="55"/>
@@ -5364,7 +5627,7 @@
       <c r="G8" s="55"/>
       <c r="H8" s="55"/>
     </row>
-    <row r="9" ht="15.15" spans="1:8">
+    <row r="9" spans="1:8">
       <c r="A9" s="55"/>
       <c r="B9" s="55"/>
       <c r="C9" s="55"/>
@@ -5382,127 +5645,127 @@
       <c r="C10" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="65">
-        <v>4</v>
+      <c r="D10" s="64">
+        <v>2</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <v>0</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="65">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:8">
+      <c r="A11" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="29.55" spans="1:8">
-      <c r="A11" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" ht="29.55" spans="1:8">
-      <c r="A12" s="70">
-        <v>1</v>
-      </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="71"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" ht="29.55" spans="1:8">
-      <c r="A13" s="70">
+      <c r="A13" s="69">
         <v>2</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
         <v>155</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="C13" s="70" t="s">
         <v>156</v>
       </c>
-      <c r="D13" s="71" t="s">
+      <c r="D13" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72" t="s">
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
         <v>157</v>
       </c>
-      <c r="H13" s="71"/>
+      <c r="H13" s="70"/>
     </row>
     <row r="14" ht="58.35" spans="1:8">
-      <c r="A14" s="70">
+      <c r="A14" s="69">
         <v>3</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="70" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="71" t="s">
+      <c r="C14" s="70" t="s">
         <v>158</v>
       </c>
-      <c r="D14" s="71"/>
-      <c r="E14" s="71" t="s">
+      <c r="D14" s="70"/>
+      <c r="E14" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72" t="s">
+      <c r="F14" s="70"/>
+      <c r="G14" s="71" t="s">
         <v>159</v>
       </c>
-      <c r="H14" s="73">
+      <c r="H14" s="72">
         <v>2</v>
       </c>
     </row>
     <row r="15" ht="43" customHeight="1" spans="1:8">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="C15" s="71"/>
-      <c r="D15" s="71"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="74"/>
-      <c r="H15" s="75"/>
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="74"/>
     </row>
     <row r="16" ht="15.15" spans="1:8">
-      <c r="A16" s="76"/>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="77"/>
+      <c r="A16" s="75"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="76"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5515,8 +5778,8 @@
   <sheetPr/>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
@@ -5564,14 +5827,12 @@
       <c r="A3" s="55"/>
       <c r="B3" s="62"/>
       <c r="C3" s="55"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
       <c r="F3" s="55" t="s">
         <v>120</v>
       </c>
-      <c r="G3" s="55">
-        <v>4</v>
-      </c>
+      <c r="G3" s="55"/>
       <c r="H3" s="55"/>
     </row>
     <row r="4" ht="15.15" spans="1:8">
@@ -5587,8 +5848,292 @@
       <c r="F4" s="55" t="s">
         <v>123</v>
       </c>
-      <c r="G4" s="64">
-        <v>45098</v>
+      <c r="G4" s="63">
+        <v>45102</v>
+      </c>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:8">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:8">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:8">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="64">
+        <v>4</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="64">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:8">
+      <c r="A11" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="69">
+        <v>1</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" ht="43.95" spans="1:8">
+      <c r="A13" s="69">
+        <v>2</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" ht="29.55" spans="1:8">
+      <c r="A14" s="69">
+        <v>3</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:8">
+      <c r="A15" s="69">
+        <v>4</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="73" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" ht="15.15" spans="1:8">
+      <c r="A16" s="75"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:8">
+      <c r="A2" s="53"/>
+      <c r="B2" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:8">
+      <c r="A3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="55">
+        <v>4</v>
+      </c>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="63">
+        <v>45102</v>
       </c>
       <c r="H4" s="55"/>
     </row>
@@ -5653,150 +6198,150 @@
     <row r="10" ht="15.15" spans="1:8">
       <c r="A10" s="62"/>
       <c r="B10" s="62" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="C10" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D10" s="64">
         <v>4</v>
       </c>
       <c r="E10" s="62"/>
-      <c r="F10" s="65">
+      <c r="F10" s="64">
         <v>0</v>
       </c>
       <c r="G10" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="H10" s="66">
+      <c r="H10" s="65">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:8">
+      <c r="A11" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="69">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" ht="29.55" spans="1:8">
-      <c r="A11" s="67" t="s">
-        <v>131</v>
-      </c>
-      <c r="B11" s="68" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="D11" s="69" t="s">
-        <v>134</v>
-      </c>
-      <c r="E11" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="F11" s="69" t="s">
-        <v>136</v>
-      </c>
-      <c r="G11" s="68" t="s">
-        <v>137</v>
-      </c>
-      <c r="H11" s="68" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" ht="29.55" spans="1:8">
-      <c r="A12" s="70">
-        <v>1</v>
-      </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="70" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="71" t="s">
+      <c r="C12" s="70" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="70" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="72" t="s">
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71" t="s">
         <v>140</v>
       </c>
-      <c r="H12" s="71"/>
+      <c r="H12" s="70"/>
     </row>
     <row r="13" ht="43.95" spans="1:8">
-      <c r="A13" s="70">
+      <c r="A13" s="69">
         <v>2</v>
       </c>
-      <c r="B13" s="71" t="s">
+      <c r="B13" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="70" t="s">
         <v>164</v>
       </c>
-      <c r="C13" s="71" t="s">
+      <c r="D13" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="71" t="s">
-        <v>141</v>
-      </c>
-      <c r="E13" s="71"/>
-      <c r="F13" s="71"/>
-      <c r="G13" s="72" t="s">
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" ht="29.55" spans="1:8">
+      <c r="A14" s="69">
+        <v>3</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="70" t="s">
         <v>166</v>
       </c>
-      <c r="H13" s="71"/>
-    </row>
-    <row r="14" ht="29.55" spans="1:8">
-      <c r="A14" s="70">
-        <v>3</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>147</v>
-      </c>
-      <c r="C14" s="71" t="s">
+      <c r="D14" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71" t="s">
         <v>167</v>
       </c>
-      <c r="D14" s="71" t="s">
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:8">
+      <c r="A15" s="69">
+        <v>4</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>169</v>
+      </c>
+      <c r="D15" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="72" t="s">
-        <v>168</v>
-      </c>
-      <c r="H14" s="73"/>
-    </row>
-    <row r="15" ht="43" customHeight="1" spans="1:8">
-      <c r="A15" s="70">
-        <v>4</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>169</v>
-      </c>
-      <c r="C15" s="71" t="s">
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="73" t="s">
         <v>170</v>
       </c>
-      <c r="D15" s="71" t="s">
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" ht="43.95" spans="1:8">
+      <c r="A16" s="75">
+        <v>5</v>
+      </c>
+      <c r="B16" s="70" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="70" t="s">
+        <v>176</v>
+      </c>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70" t="s">
         <v>149</v>
       </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="71"/>
-      <c r="G15" s="74" t="s">
-        <v>171</v>
-      </c>
-      <c r="H15" s="75"/>
-    </row>
-    <row r="16" ht="43.95" spans="1:8">
-      <c r="A16" s="76">
-        <v>5</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>172</v>
-      </c>
-      <c r="C16" s="71" t="s">
-        <v>173</v>
-      </c>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71" t="s">
-        <v>149</v>
-      </c>
-      <c r="F16" s="71"/>
-      <c r="G16" s="71" t="s">
-        <v>174</v>
-      </c>
-      <c r="H16" s="77">
+      <c r="F16" s="70"/>
+      <c r="G16" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="76">
         <v>4</v>
       </c>
     </row>
@@ -5806,7 +6351,289 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="4.55555555555556" customWidth="1"/>
+    <col min="2" max="2" width="31.7777777777778" customWidth="1"/>
+    <col min="3" max="3" width="54" customWidth="1"/>
+    <col min="6" max="6" width="21.6666666666667" customWidth="1"/>
+    <col min="7" max="7" width="13.1111111111111" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="29" customHeight="1" spans="1:8">
+      <c r="A1" s="53"/>
+      <c r="B1" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="55"/>
+    </row>
+    <row r="2" ht="38" customHeight="1" spans="1:8">
+      <c r="A2" s="53"/>
+      <c r="B2" s="58" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" ht="15.15" spans="1:8">
+      <c r="A3" s="55"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
+    </row>
+    <row r="4" ht="15.15" spans="1:8">
+      <c r="A4" s="53"/>
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>180</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="G4" s="63">
+        <v>45102</v>
+      </c>
+      <c r="H4" s="55"/>
+    </row>
+    <row r="5" ht="15.15" spans="1:8">
+      <c r="A5" s="55"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:8">
+      <c r="A6" s="53"/>
+      <c r="B6" s="58" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+    </row>
+    <row r="7" ht="15" customHeight="1" spans="1:8">
+      <c r="A7" s="55"/>
+      <c r="B7" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+    </row>
+    <row r="8" ht="15.15" spans="1:8">
+      <c r="A8" s="55"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+    </row>
+    <row r="9" ht="15.15" spans="1:8">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+    </row>
+    <row r="10" ht="15.15" spans="1:8">
+      <c r="A10" s="62"/>
+      <c r="B10" s="62" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>129</v>
+      </c>
+      <c r="D10" s="64">
+        <v>4</v>
+      </c>
+      <c r="E10" s="62"/>
+      <c r="F10" s="64">
+        <v>0</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>130</v>
+      </c>
+      <c r="H10" s="65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="29.55" spans="1:8">
+      <c r="A11" s="66" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>132</v>
+      </c>
+      <c r="C11" s="68" t="s">
+        <v>133</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>134</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="67" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="67" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" ht="29.55" spans="1:8">
+      <c r="A12" s="69">
+        <v>1</v>
+      </c>
+      <c r="B12" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="71" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="70"/>
+    </row>
+    <row r="13" ht="43.95" spans="1:8">
+      <c r="A13" s="69">
+        <v>2</v>
+      </c>
+      <c r="B13" s="70" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="70" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="70" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="71" t="s">
+        <v>165</v>
+      </c>
+      <c r="H13" s="70"/>
+    </row>
+    <row r="14" ht="29.55" spans="1:8">
+      <c r="A14" s="69">
+        <v>3</v>
+      </c>
+      <c r="B14" s="70" t="s">
+        <v>147</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>166</v>
+      </c>
+      <c r="D14" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="71" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="72"/>
+    </row>
+    <row r="15" ht="43" customHeight="1" spans="1:8">
+      <c r="A15" s="69">
+        <v>4</v>
+      </c>
+      <c r="B15" s="70" t="s">
+        <v>181</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>182</v>
+      </c>
+      <c r="D15" s="70" t="s">
+        <v>149</v>
+      </c>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="73" t="s">
+        <v>183</v>
+      </c>
+      <c r="H15" s="74"/>
+    </row>
+    <row r="16" ht="15.15" spans="1:8">
+      <c r="A16" s="75"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="76"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N15"/>
@@ -5825,10 +6652,10 @@
   <sheetData>
     <row r="1" ht="50" customHeight="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -5851,7 +6678,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D2" s="7">
         <v>1</v>
@@ -5869,13 +6696,13 @@
     </row>
     <row r="3" ht="41" customHeight="1" spans="1:14">
       <c r="A3" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>16</v>
@@ -5896,13 +6723,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="26"/>
@@ -5920,13 +6747,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>184</v>
+        <v>193</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>185</v>
+        <v>194</v>
       </c>
       <c r="E5" s="27"/>
       <c r="F5" s="27"/>
@@ -5941,11 +6768,11 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="14" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>122</v>
@@ -5963,10 +6790,10 @@
     </row>
     <row r="7" ht="185.55" customHeight="1" spans="1:14">
       <c r="A7" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>189</v>
+        <v>198</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
@@ -5983,10 +6810,10 @@
     </row>
     <row r="8" ht="27.9" customHeight="1" spans="1:14">
       <c r="A8" s="19" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>191</v>
+        <v>200</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
@@ -6089,12 +6916,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
@@ -6108,10 +6935,10 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3"/>
@@ -6124,7 +6951,7 @@
         <v>2</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="D2" s="7">
         <v>2</v>
@@ -6132,13 +6959,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="8" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="D3" s="10" t="s">
         <v>20</v>
@@ -6149,13 +6976,13 @@
         <v>11</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>183</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -6163,22 +6990,22 @@
         <v>39</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="14" t="s">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="B6" s="15"/>
       <c r="C6" s="12" t="s">
-        <v>187</v>
+        <v>196</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>153</v>
@@ -6186,263 +7013,20 @@
     </row>
     <row r="7" ht="158.4" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="C7" s="17"/>
       <c r="D7" s="18"/>
     </row>
     <row r="8" ht="15.15" spans="1:4">
       <c r="A8" s="19" t="s">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11.7777777777778" customWidth="1"/>
-    <col min="2" max="2" width="20.7777777777778" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" ht="26.4" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="5">
-        <v>3</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="7">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" ht="26.4" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" ht="39.6" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" ht="28.8" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="7" ht="198" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>198</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" ht="15.15" spans="1:4">
-      <c r="A8" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="C8" s="21"/>
-      <c r="D8" s="22"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:C1"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="3"/>
-  <cols>
-    <col min="1" max="1" width="11.4444444444444" customWidth="1"/>
-    <col min="2" max="2" width="24.7777777777778" customWidth="1"/>
-    <col min="3" max="3" width="16.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="12.2222222222222" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B2" s="5">
-        <v>4</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D2" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="13" t="s">
         <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="B6" s="15"/>
-      <c r="C6" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="7" ht="198" spans="1:4">
-      <c r="A7" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" s="17"/>
-      <c r="D7" s="18"/>
-    </row>
-    <row r="8" ht="15.15" spans="1:4">
-      <c r="A8" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>191</v>
       </c>
       <c r="C8" s="21"/>
       <c r="D8" s="22"/>
